--- a/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\Documents\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9A20D-F140-4A64-B5B2-365937BC03A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406276D-DD03-4B2B-931C-7D60142EBA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="708" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="708" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2870,48 +2870,189 @@
     <xf numFmtId="165" fontId="32" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="18" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2921,19 +3062,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2944,132 +3073,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3109,9 +3112,6 @@
     <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="18" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4183,7 +4183,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="E23" sqref="E23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4212,56 +4212,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="466"/>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="A1" s="456"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="456"/>
+      <c r="S1" s="456"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -4271,14 +4271,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -4308,12 +4308,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -4405,29 +4405,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -4449,10 +4449,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -4462,15 +4462,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4495,27 +4495,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="441">
+      <c r="I9" s="438">
         <v>40900</v>
       </c>
-      <c r="J9" s="442"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4537,13 +4537,13 @@
       </c>
       <c r="B10" s="401"/>
       <c r="C10" s="402"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4568,13 +4568,13 @@
       </c>
       <c r="B11" s="399"/>
       <c r="C11" s="400"/>
-      <c r="D11" s="458"/>
-      <c r="E11" s="459"/>
+      <c r="D11" s="469"/>
+      <c r="E11" s="470"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4608,13 +4608,13 @@
       </c>
       <c r="B12" s="367"/>
       <c r="C12" s="279"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
       <c r="F12" s="368"/>
       <c r="G12" s="368"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="475"/>
-      <c r="J12" s="476"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="444"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4645,11 +4645,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4665,11 +4665,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4704,13 +4704,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4742,11 +4742,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4759,11 +4759,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4835,22 +4835,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40200</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40300</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="435">
+      <c r="I17" s="454">
         <v>40600</v>
       </c>
-      <c r="J17" s="437"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4941,23 +4941,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4979,9 +4979,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -5014,9 +5014,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -5049,9 +5049,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -5092,9 +5092,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -5127,9 +5127,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -5248,12 +5248,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -5288,9 +5288,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -5313,9 +5313,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -5342,15 +5342,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -5388,9 +5388,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -5415,9 +5415,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -5426,14 +5426,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -5463,11 +5463,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="448"/>
-      <c r="O34" s="448"/>
-      <c r="P34" s="448"/>
-      <c r="Q34" s="448"/>
-      <c r="R34" s="448"/>
+      <c r="N34" s="479"/>
+      <c r="O34" s="479"/>
+      <c r="P34" s="479"/>
+      <c r="Q34" s="479"/>
+      <c r="R34" s="479"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -5496,11 +5496,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -5510,12 +5510,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5529,11 +5529,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -5542,11 +5542,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5561,25 +5561,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="451"/>
-      <c r="F38" s="452"/>
-      <c r="G38" s="453"/>
+      <c r="E38" s="448"/>
+      <c r="F38" s="449"/>
+      <c r="G38" s="450"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5591,11 +5591,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -5605,14 +5605,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="451"/>
-      <c r="F39" s="452"/>
-      <c r="G39" s="453"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="450"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5645,9 +5645,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="451"/>
-      <c r="F40" s="452"/>
-      <c r="G40" s="453"/>
+      <c r="E40" s="448"/>
+      <c r="F40" s="449"/>
+      <c r="G40" s="450"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5678,9 +5678,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="451"/>
-      <c r="F41" s="452"/>
-      <c r="G41" s="453"/>
+      <c r="E41" s="448"/>
+      <c r="F41" s="449"/>
+      <c r="G41" s="450"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5695,14 +5695,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -5728,11 +5728,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -5753,11 +5753,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -5781,11 +5781,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -5812,11 +5812,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -5836,11 +5836,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -5959,20 +5959,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
-      <c r="J51" s="479">
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -6796,12 +6796,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D12:E12"/>
@@ -6818,52 +6858,12 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6882,8 +6882,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6933,33 +6933,33 @@
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -6969,17 +6969,17 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473">
+      <c r="J3" s="463">
         <f>+MON!J3+1</f>
         <v>1</v>
       </c>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -7009,12 +7009,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -7106,29 +7106,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -7150,10 +7150,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -7163,15 +7163,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -7196,27 +7196,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="441">
+      <c r="I9" s="438">
         <v>40900</v>
       </c>
-      <c r="J9" s="442"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -7238,13 +7238,13 @@
       </c>
       <c r="B10" s="401"/>
       <c r="C10" s="402"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -7269,13 +7269,13 @@
       </c>
       <c r="B11" s="399"/>
       <c r="C11" s="400"/>
-      <c r="D11" s="458"/>
-      <c r="E11" s="459"/>
+      <c r="D11" s="469"/>
+      <c r="E11" s="470"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -7309,13 +7309,13 @@
       </c>
       <c r="B12" s="367"/>
       <c r="C12" s="368"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="475"/>
-      <c r="J12" s="476"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="444"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -7346,11 +7346,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f>SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" ref="E13" si="0">SUM(E10:E12)</f>
         <v>0</v>
       </c>
@@ -7366,11 +7366,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -7405,13 +7405,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -7443,11 +7443,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -7460,11 +7460,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7536,22 +7536,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40200</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40300</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="435">
+      <c r="I17" s="454">
         <v>40600</v>
       </c>
-      <c r="J17" s="437"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7642,23 +7642,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7680,9 +7680,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7715,9 +7715,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7750,9 +7750,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7793,9 +7793,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7828,9 +7828,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7949,12 +7949,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -7989,9 +7989,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -8014,9 +8014,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -8043,15 +8043,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -8088,9 +8088,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -8115,9 +8115,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -8126,14 +8126,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -8163,11 +8163,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="448"/>
-      <c r="O34" s="448"/>
-      <c r="P34" s="448"/>
-      <c r="Q34" s="448"/>
-      <c r="R34" s="448"/>
+      <c r="N34" s="479"/>
+      <c r="O34" s="479"/>
+      <c r="P34" s="479"/>
+      <c r="Q34" s="479"/>
+      <c r="R34" s="479"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -8196,11 +8196,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -8210,12 +8210,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -8229,11 +8229,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -8242,11 +8242,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -8261,25 +8261,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="451"/>
-      <c r="F38" s="452"/>
-      <c r="G38" s="453"/>
+      <c r="E38" s="448"/>
+      <c r="F38" s="449"/>
+      <c r="G38" s="450"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -8291,11 +8291,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -8305,14 +8305,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="451"/>
-      <c r="F39" s="452"/>
-      <c r="G39" s="453"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="450"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -8345,9 +8345,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="451"/>
-      <c r="F40" s="452"/>
-      <c r="G40" s="453"/>
+      <c r="E40" s="448"/>
+      <c r="F40" s="449"/>
+      <c r="G40" s="450"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -8378,9 +8378,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="451"/>
-      <c r="F41" s="452"/>
-      <c r="G41" s="453"/>
+      <c r="E41" s="448"/>
+      <c r="F41" s="449"/>
+      <c r="G41" s="450"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -8395,14 +8395,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -8428,11 +8428,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -8453,11 +8453,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -8481,11 +8481,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -8512,11 +8512,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -8536,11 +8536,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -8659,20 +8659,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>1</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
-      <c r="J51" s="479">
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>1</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -9517,48 +9517,15 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -9575,15 +9542,48 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -9603,7 +9603,7 @@
   <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9633,56 +9633,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="466"/>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="A1" s="456"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="456"/>
+      <c r="S1" s="456"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -9692,14 +9692,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -9729,12 +9729,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -9826,29 +9826,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -9870,10 +9870,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -9883,15 +9883,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -9916,27 +9916,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="441">
+      <c r="I9" s="438">
         <v>40900</v>
       </c>
-      <c r="J9" s="442"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -9958,13 +9958,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -9989,13 +9989,13 @@
       </c>
       <c r="B11" s="188"/>
       <c r="C11" s="189"/>
-      <c r="D11" s="488"/>
-      <c r="E11" s="489"/>
+      <c r="D11" s="491"/>
+      <c r="E11" s="492"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -10029,13 +10029,13 @@
       </c>
       <c r="B12" s="367"/>
       <c r="C12" s="368"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="475"/>
-      <c r="J12" s="476"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="444"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -10066,11 +10066,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10086,11 +10086,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -10125,13 +10125,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -10163,11 +10163,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -10180,11 +10180,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -10256,22 +10256,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40200</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40300</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="435">
+      <c r="I17" s="454">
         <v>40600</v>
       </c>
-      <c r="J17" s="437"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -10362,23 +10362,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -10400,9 +10400,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -10435,9 +10435,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -10470,9 +10470,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10513,9 +10513,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10550,9 +10550,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10671,12 +10671,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -10711,9 +10711,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10738,9 +10738,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10767,15 +10767,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10812,9 +10812,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -10839,9 +10839,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -10850,14 +10850,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="448"/>
-      <c r="O34" s="448"/>
-      <c r="P34" s="448"/>
-      <c r="Q34" s="448"/>
-      <c r="R34" s="448"/>
+      <c r="N34" s="479"/>
+      <c r="O34" s="479"/>
+      <c r="P34" s="479"/>
+      <c r="Q34" s="479"/>
+      <c r="R34" s="479"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -10920,11 +10920,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -10934,12 +10934,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -10953,11 +10953,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -10966,11 +10966,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -10985,25 +10985,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="451"/>
-      <c r="F38" s="452"/>
-      <c r="G38" s="453"/>
+      <c r="E38" s="448"/>
+      <c r="F38" s="449"/>
+      <c r="G38" s="450"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -11015,11 +11015,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -11029,14 +11029,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="451"/>
-      <c r="F39" s="452"/>
-      <c r="G39" s="453"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="450"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -11069,9 +11069,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="451"/>
-      <c r="F40" s="452"/>
-      <c r="G40" s="453"/>
+      <c r="E40" s="448"/>
+      <c r="F40" s="449"/>
+      <c r="G40" s="450"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -11102,9 +11102,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="451"/>
-      <c r="F41" s="452"/>
-      <c r="G41" s="453"/>
+      <c r="E41" s="448"/>
+      <c r="F41" s="449"/>
+      <c r="G41" s="450"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -11119,14 +11119,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -11152,11 +11152,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -11177,11 +11177,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -11205,11 +11205,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -11236,11 +11236,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -11260,11 +11260,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -11383,20 +11383,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
-      <c r="J51" s="479">
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -12237,6 +12237,61 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -12250,61 +12305,6 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -12324,7 +12324,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12353,56 +12353,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="466"/>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="A1" s="456"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="456"/>
+      <c r="S1" s="456"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12412,14 +12412,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -12449,12 +12449,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12546,29 +12546,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -12590,10 +12590,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -12603,15 +12603,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -12636,27 +12636,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="441">
+      <c r="I9" s="438">
         <v>40900</v>
       </c>
-      <c r="J9" s="442"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -12678,13 +12678,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -12709,13 +12709,13 @@
       </c>
       <c r="B11" s="188"/>
       <c r="C11" s="189"/>
-      <c r="D11" s="488"/>
-      <c r="E11" s="489"/>
+      <c r="D11" s="491"/>
+      <c r="E11" s="492"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -12749,13 +12749,13 @@
       </c>
       <c r="B12" s="367"/>
       <c r="C12" s="368"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
       <c r="F12" s="368"/>
       <c r="G12" s="368"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="475"/>
-      <c r="J12" s="476"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="444"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -12786,11 +12786,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12806,11 +12806,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -12845,13 +12845,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -12883,11 +12883,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -12900,11 +12900,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -12976,22 +12976,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40200</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40300</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="435">
+      <c r="I17" s="454">
         <v>40600</v>
       </c>
-      <c r="J17" s="437"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -13082,23 +13082,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -13120,9 +13120,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -13155,9 +13155,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -13190,9 +13190,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -13233,9 +13233,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -13268,9 +13268,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -13390,12 +13390,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -13430,9 +13430,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -13457,9 +13457,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13486,15 +13486,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13531,9 +13531,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13558,9 +13558,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13569,14 +13569,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -13606,11 +13606,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="448"/>
-      <c r="O34" s="448"/>
-      <c r="P34" s="448"/>
-      <c r="Q34" s="448"/>
-      <c r="R34" s="448"/>
+      <c r="N34" s="479"/>
+      <c r="O34" s="479"/>
+      <c r="P34" s="479"/>
+      <c r="Q34" s="479"/>
+      <c r="R34" s="479"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -13639,11 +13639,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -13653,12 +13653,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -13672,11 +13672,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -13685,11 +13685,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -13704,25 +13704,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="451"/>
-      <c r="F38" s="452"/>
-      <c r="G38" s="453"/>
+      <c r="E38" s="448"/>
+      <c r="F38" s="449"/>
+      <c r="G38" s="450"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -13734,11 +13734,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -13748,14 +13748,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="451"/>
-      <c r="F39" s="452"/>
-      <c r="G39" s="453"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="450"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -13788,9 +13788,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="451"/>
-      <c r="F40" s="452"/>
-      <c r="G40" s="453"/>
+      <c r="E40" s="448"/>
+      <c r="F40" s="449"/>
+      <c r="G40" s="450"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -13821,9 +13821,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="451"/>
-      <c r="F41" s="452"/>
-      <c r="G41" s="453"/>
+      <c r="E41" s="448"/>
+      <c r="F41" s="449"/>
+      <c r="G41" s="450"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -13838,14 +13838,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -13871,11 +13871,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -13896,11 +13896,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -13924,11 +13924,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -13955,11 +13955,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -13979,11 +13979,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -14102,20 +14102,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
-      <c r="J51" s="479">
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -14930,58 +14930,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -14998,6 +14946,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15046,56 +15046,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="466"/>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="A1" s="456"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="456"/>
+      <c r="S1" s="456"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -15105,14 +15105,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -15142,12 +15142,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -15239,29 +15239,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -15283,10 +15283,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -15296,15 +15296,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -15329,27 +15329,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="441">
+      <c r="I9" s="438">
         <v>40900</v>
       </c>
-      <c r="J9" s="442"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -15371,13 +15371,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -15402,13 +15402,13 @@
       </c>
       <c r="B11" s="188"/>
       <c r="C11" s="189"/>
-      <c r="D11" s="488"/>
-      <c r="E11" s="489"/>
+      <c r="D11" s="491"/>
+      <c r="E11" s="492"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -15442,13 +15442,13 @@
       </c>
       <c r="B12" s="367"/>
       <c r="C12" s="368"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
       <c r="F12" s="368"/>
       <c r="G12" s="368"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="475"/>
-      <c r="J12" s="476"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="444"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -15479,11 +15479,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15499,11 +15499,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -15538,13 +15538,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -15576,11 +15576,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -15593,11 +15593,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -15669,22 +15669,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40200</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40300</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="435">
+      <c r="I17" s="454">
         <v>40600</v>
       </c>
-      <c r="J17" s="437"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -15775,23 +15775,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -15813,9 +15813,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -15848,9 +15848,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -15883,9 +15883,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -15926,9 +15926,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -15961,9 +15961,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -16082,12 +16082,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -16124,9 +16124,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -16151,9 +16151,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -16180,15 +16180,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -16225,9 +16225,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -16252,9 +16252,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -16263,14 +16263,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -16300,11 +16300,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="448"/>
-      <c r="O34" s="448"/>
-      <c r="P34" s="448"/>
-      <c r="Q34" s="448"/>
-      <c r="R34" s="448"/>
+      <c r="N34" s="479"/>
+      <c r="O34" s="479"/>
+      <c r="P34" s="479"/>
+      <c r="Q34" s="479"/>
+      <c r="R34" s="479"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -16333,11 +16333,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -16347,12 +16347,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -16366,11 +16366,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -16379,11 +16379,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -16398,25 +16398,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="429"/>
-      <c r="F38" s="430"/>
-      <c r="G38" s="431"/>
+      <c r="E38" s="427"/>
+      <c r="F38" s="428"/>
+      <c r="G38" s="429"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -16428,11 +16428,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -16442,14 +16442,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="429"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="431"/>
+      <c r="E39" s="427"/>
+      <c r="F39" s="428"/>
+      <c r="G39" s="429"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -16482,9 +16482,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="429"/>
-      <c r="F40" s="430"/>
-      <c r="G40" s="431"/>
+      <c r="E40" s="427"/>
+      <c r="F40" s="428"/>
+      <c r="G40" s="429"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -16515,9 +16515,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="429"/>
-      <c r="F41" s="430"/>
-      <c r="G41" s="431"/>
+      <c r="E41" s="427"/>
+      <c r="F41" s="428"/>
+      <c r="G41" s="429"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -16532,14 +16532,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -16565,11 +16565,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -16590,11 +16590,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -16618,11 +16618,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -16650,11 +16650,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -16674,11 +16674,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -16797,20 +16797,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
-      <c r="J51" s="479">
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -17674,58 +17674,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -17742,6 +17690,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -17763,7 +17763,7 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17793,56 +17793,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="466"/>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="A1" s="456"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="456"/>
+      <c r="S1" s="456"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -17852,14 +17852,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -17889,12 +17889,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17986,29 +17986,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -18030,10 +18030,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -18043,15 +18043,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -18076,27 +18076,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="441">
+      <c r="I9" s="438">
         <v>40900</v>
       </c>
-      <c r="J9" s="442"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -18118,13 +18118,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -18149,13 +18149,13 @@
       </c>
       <c r="B11" s="188"/>
       <c r="C11" s="189"/>
-      <c r="D11" s="488"/>
-      <c r="E11" s="489"/>
+      <c r="D11" s="491"/>
+      <c r="E11" s="492"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -18189,13 +18189,13 @@
       </c>
       <c r="B12" s="188"/>
       <c r="C12" s="189"/>
-      <c r="D12" s="488"/>
-      <c r="E12" s="489"/>
+      <c r="D12" s="491"/>
+      <c r="E12" s="492"/>
       <c r="F12" s="189"/>
       <c r="G12" s="189"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="475"/>
-      <c r="J12" s="476"/>
+      <c r="I12" s="443"/>
+      <c r="J12" s="444"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -18226,11 +18226,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18246,11 +18246,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -18285,13 +18285,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -18323,11 +18323,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -18340,11 +18340,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -18416,22 +18416,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40200</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40300</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="435">
+      <c r="I17" s="454">
         <v>40600</v>
       </c>
-      <c r="J17" s="437"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18522,23 +18522,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18560,9 +18560,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18595,9 +18595,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18630,9 +18630,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18673,9 +18673,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18710,9 +18710,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18831,12 +18831,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -18871,9 +18871,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18898,9 +18898,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18927,15 +18927,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18972,9 +18972,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18999,9 +18999,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -19010,14 +19010,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -19047,11 +19047,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="448"/>
-      <c r="O34" s="448"/>
-      <c r="P34" s="448"/>
-      <c r="Q34" s="448"/>
-      <c r="R34" s="448"/>
+      <c r="N34" s="479"/>
+      <c r="O34" s="479"/>
+      <c r="P34" s="479"/>
+      <c r="Q34" s="479"/>
+      <c r="R34" s="479"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -19080,11 +19080,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -19095,12 +19095,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -19114,11 +19114,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -19127,11 +19127,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -19146,25 +19146,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="429"/>
-      <c r="F38" s="430"/>
-      <c r="G38" s="431"/>
+      <c r="E38" s="427"/>
+      <c r="F38" s="428"/>
+      <c r="G38" s="429"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -19176,11 +19176,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -19190,14 +19190,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="429"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="431"/>
+      <c r="E39" s="427"/>
+      <c r="F39" s="428"/>
+      <c r="G39" s="429"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -19230,9 +19230,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="429"/>
-      <c r="F40" s="430"/>
-      <c r="G40" s="431"/>
+      <c r="E40" s="427"/>
+      <c r="F40" s="428"/>
+      <c r="G40" s="429"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -19263,9 +19263,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="429"/>
-      <c r="F41" s="430"/>
-      <c r="G41" s="431"/>
+      <c r="E41" s="427"/>
+      <c r="F41" s="428"/>
+      <c r="G41" s="429"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -19280,14 +19280,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -19313,11 +19313,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -19337,11 +19337,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -19365,11 +19365,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -19396,11 +19396,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -19420,11 +19420,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -19543,21 +19543,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="479">
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -20429,58 +20429,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -20497,6 +20445,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -20515,8 +20515,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -20545,56 +20545,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="466"/>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="466"/>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
-      <c r="O1" s="466"/>
-      <c r="P1" s="466"/>
-      <c r="Q1" s="466"/>
-      <c r="R1" s="466"/>
-      <c r="S1" s="466"/>
+      <c r="A1" s="456"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="456"/>
+      <c r="S1" s="456"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="468"/>
-      <c r="P2" s="469" t="s">
+      <c r="A2" s="457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="470"/>
-      <c r="R2" s="471"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="461"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="424" t="s">
+      <c r="T2" s="482" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="425"/>
+      <c r="U2" s="483"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -20604,14 +20604,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="472" t="s">
+      <c r="H3" s="462" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="J3" s="463"/>
+      <c r="K3" s="463"/>
+      <c r="L3" s="463"/>
+      <c r="M3" s="463"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -20641,12 +20641,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="472"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
+      <c r="J4" s="464"/>
+      <c r="K4" s="464"/>
+      <c r="L4" s="464"/>
+      <c r="M4" s="464"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20738,29 +20738,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="457"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="454" t="s">
+      <c r="D7" s="468"/>
+      <c r="E7" s="466"/>
+      <c r="F7" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="455"/>
+      <c r="G7" s="466"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="454" t="s">
+      <c r="I7" s="465" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="455"/>
+      <c r="J7" s="466"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="454" t="s">
+      <c r="L7" s="465" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="456"/>
+      <c r="M7" s="467"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
@@ -20779,10 +20779,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="461"/>
+      <c r="E8" s="474"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -20790,13 +20790,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="157"/>
-      <c r="I8" s="486"/>
-      <c r="J8" s="487"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="437"/>
       <c r="K8" s="158"/>
-      <c r="L8" s="462" t="s">
+      <c r="L8" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="464" t="s">
+      <c r="M8" s="477" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20818,21 +20818,21 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="441">
+      <c r="C9" s="438">
         <v>40100</v>
       </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="442"/>
-      <c r="F9" s="441">
+      <c r="D9" s="488"/>
+      <c r="E9" s="439"/>
+      <c r="F9" s="438">
         <v>40200</v>
       </c>
-      <c r="G9" s="442"/>
+      <c r="G9" s="439"/>
       <c r="H9" s="104"/>
-      <c r="I9" s="441"/>
-      <c r="J9" s="442"/>
+      <c r="I9" s="438"/>
+      <c r="J9" s="439"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="463"/>
-      <c r="M9" s="465"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="478"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
@@ -20851,13 +20851,13 @@
       </c>
       <c r="B10" s="401"/>
       <c r="C10" s="402"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="472"/>
       <c r="F10" s="248"/>
       <c r="G10" s="402"/>
       <c r="H10" s="402"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="445"/>
+      <c r="I10" s="471"/>
+      <c r="J10" s="472"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20882,13 +20882,13 @@
       </c>
       <c r="B11" s="399"/>
       <c r="C11" s="400"/>
-      <c r="D11" s="458"/>
-      <c r="E11" s="459"/>
+      <c r="D11" s="469"/>
+      <c r="E11" s="470"/>
       <c r="F11" s="304"/>
       <c r="G11" s="415"/>
       <c r="H11" s="415"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="447"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="490"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -20922,13 +20922,13 @@
       </c>
       <c r="B12" s="367"/>
       <c r="C12" s="368"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="446"/>
       <c r="F12" s="368"/>
       <c r="G12" s="368"/>
       <c r="H12" s="368"/>
-      <c r="I12" s="477"/>
-      <c r="J12" s="478"/>
+      <c r="I12" s="445"/>
+      <c r="J12" s="446"/>
       <c r="K12" s="368"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -20959,11 +20959,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="480">
+      <c r="D13" s="430">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="481">
+      <c r="E13" s="431">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20979,11 +20979,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="480">
+      <c r="I13" s="430">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="481">
+      <c r="J13" s="431">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -21018,13 +21018,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="483"/>
+      <c r="D14" s="432"/>
+      <c r="E14" s="433"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="482"/>
-      <c r="J14" s="483"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="433"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -21055,11 +21055,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="484">
+      <c r="D15" s="434">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -21072,11 +21072,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="484">
+      <c r="I15" s="434">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="485"/>
+      <c r="J15" s="435"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -21149,18 +21149,18 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="435">
+      <c r="C17" s="454">
         <v>40100</v>
       </c>
-      <c r="D17" s="436"/>
-      <c r="E17" s="437"/>
-      <c r="F17" s="435">
+      <c r="D17" s="484"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="454">
         <v>40200</v>
       </c>
-      <c r="G17" s="437"/>
+      <c r="G17" s="455"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="435"/>
-      <c r="J17" s="437"/>
+      <c r="I17" s="454"/>
+      <c r="J17" s="455"/>
       <c r="K17" s="5"/>
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
@@ -21248,23 +21248,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="426" t="s">
+      <c r="A20" s="440" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="428"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="426" t="s">
+      <c r="E20" s="440" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="427"/>
-      <c r="G20" s="427"/>
-      <c r="H20" s="428"/>
-      <c r="J20" s="426" t="s">
+      <c r="F20" s="441"/>
+      <c r="G20" s="441"/>
+      <c r="H20" s="442"/>
+      <c r="J20" s="440" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="427"/>
-      <c r="L20" s="428"/>
+      <c r="K20" s="441"/>
+      <c r="L20" s="442"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -21286,9 +21286,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="431"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="429"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -21321,9 +21321,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="427"/>
+      <c r="F22" s="428"/>
+      <c r="G22" s="429"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -21356,9 +21356,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="429"/>
-      <c r="F23" s="430"/>
-      <c r="G23" s="431"/>
+      <c r="E23" s="427"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -21399,9 +21399,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="432"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="453"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -21434,9 +21434,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="432"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="434"/>
+      <c r="E25" s="451"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="453"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21555,12 +21555,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="427"/>
-      <c r="G28" s="427"/>
-      <c r="H28" s="428"/>
+      <c r="F28" s="441"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="442"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>99</v>
@@ -21597,9 +21597,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="432"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="434"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="453"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21624,9 +21624,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="434"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="453"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21653,15 +21653,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="438" t="s">
+      <c r="A31" s="485" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
+      <c r="B31" s="486"/>
+      <c r="C31" s="487"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="453"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21698,9 +21698,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="432"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21725,9 +21725,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="432"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="434"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="453"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -21736,14 +21736,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="449" t="s">
+      <c r="N33" s="480" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="449"/>
-      <c r="P33" s="449"/>
-      <c r="Q33" s="449"/>
-      <c r="R33" s="449"/>
-      <c r="S33" s="449"/>
+      <c r="O33" s="480"/>
+      <c r="P33" s="480"/>
+      <c r="Q33" s="480"/>
+      <c r="R33" s="480"/>
+      <c r="S33" s="480"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -21773,11 +21773,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="490"/>
-      <c r="O34" s="490"/>
-      <c r="P34" s="490"/>
-      <c r="Q34" s="490"/>
-      <c r="R34" s="490"/>
+      <c r="N34" s="493"/>
+      <c r="O34" s="493"/>
+      <c r="P34" s="493"/>
+      <c r="Q34" s="493"/>
+      <c r="R34" s="493"/>
       <c r="S34" s="55"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -21806,11 +21806,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
+      <c r="N35" s="479"/>
+      <c r="O35" s="479"/>
+      <c r="P35" s="479"/>
+      <c r="Q35" s="479"/>
+      <c r="R35" s="479"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -21820,12 +21820,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="426" t="s">
+      <c r="E36" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="427"/>
-      <c r="G36" s="427"/>
-      <c r="H36" s="428"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="441"/>
+      <c r="H36" s="442"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21839,11 +21839,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
+      <c r="N36" s="479"/>
+      <c r="O36" s="479"/>
+      <c r="P36" s="479"/>
+      <c r="Q36" s="479"/>
+      <c r="R36" s="479"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -21852,11 +21852,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="429" t="s">
+      <c r="E37" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="430"/>
-      <c r="G37" s="431"/>
+      <c r="F37" s="428"/>
+      <c r="G37" s="429"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21871,25 +21871,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
+      <c r="N37" s="479"/>
+      <c r="O37" s="479"/>
+      <c r="P37" s="479"/>
+      <c r="Q37" s="479"/>
+      <c r="R37" s="479"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="450" t="s">
+      <c r="A38" s="481" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="450"/>
+      <c r="B38" s="481"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="429"/>
-      <c r="F38" s="430"/>
-      <c r="G38" s="431"/>
+      <c r="E38" s="427"/>
+      <c r="F38" s="428"/>
+      <c r="G38" s="429"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21901,11 +21901,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
+      <c r="N38" s="479"/>
+      <c r="O38" s="479"/>
+      <c r="P38" s="479"/>
+      <c r="Q38" s="479"/>
+      <c r="R38" s="479"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -21915,14 +21915,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C34+C35+C36</f>
+        <f>C29+C33+C34+C35</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="429"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="431"/>
+      <c r="E39" s="427"/>
+      <c r="F39" s="428"/>
+      <c r="G39" s="429"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -21955,9 +21955,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="429"/>
-      <c r="F40" s="430"/>
-      <c r="G40" s="431"/>
+      <c r="E40" s="427"/>
+      <c r="F40" s="428"/>
+      <c r="G40" s="429"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -21988,9 +21988,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="429"/>
-      <c r="F41" s="430"/>
-      <c r="G41" s="431"/>
+      <c r="E41" s="427"/>
+      <c r="F41" s="428"/>
+      <c r="G41" s="429"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -22005,14 +22005,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="449" t="s">
+      <c r="N41" s="480" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="449"/>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="449"/>
-      <c r="R41" s="449"/>
-      <c r="S41" s="449"/>
+      <c r="O41" s="480"/>
+      <c r="P41" s="480"/>
+      <c r="Q41" s="480"/>
+      <c r="R41" s="480"/>
+      <c r="S41" s="480"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -22038,11 +22038,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="448"/>
-      <c r="O42" s="448"/>
-      <c r="P42" s="448"/>
-      <c r="Q42" s="448"/>
-      <c r="R42" s="448"/>
+      <c r="N42" s="479"/>
+      <c r="O42" s="479"/>
+      <c r="P42" s="479"/>
+      <c r="Q42" s="479"/>
+      <c r="R42" s="479"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -22062,11 +22062,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="448"/>
-      <c r="O43" s="448"/>
-      <c r="P43" s="448"/>
-      <c r="Q43" s="448"/>
-      <c r="R43" s="448"/>
+      <c r="N43" s="479"/>
+      <c r="O43" s="479"/>
+      <c r="P43" s="479"/>
+      <c r="Q43" s="479"/>
+      <c r="R43" s="479"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -22090,11 +22090,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="448"/>
-      <c r="O44" s="448"/>
-      <c r="P44" s="448"/>
-      <c r="Q44" s="448"/>
-      <c r="R44" s="448"/>
+      <c r="N44" s="479"/>
+      <c r="O44" s="479"/>
+      <c r="P44" s="479"/>
+      <c r="Q44" s="479"/>
+      <c r="R44" s="479"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -22121,11 +22121,11 @@
         <v>173.89</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="448"/>
-      <c r="O45" s="448"/>
-      <c r="P45" s="448"/>
-      <c r="Q45" s="448"/>
-      <c r="R45" s="448"/>
+      <c r="N45" s="479"/>
+      <c r="O45" s="479"/>
+      <c r="P45" s="479"/>
+      <c r="Q45" s="479"/>
+      <c r="R45" s="479"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -22145,11 +22145,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="448"/>
-      <c r="O46" s="448"/>
-      <c r="P46" s="448"/>
-      <c r="Q46" s="448"/>
-      <c r="R46" s="448"/>
+      <c r="N46" s="479"/>
+      <c r="O46" s="479"/>
+      <c r="P46" s="479"/>
+      <c r="Q46" s="479"/>
+      <c r="R46" s="479"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -22266,21 +22266,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="479">
+      <c r="E51" s="447">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="479"/>
-      <c r="G51" s="479"/>
-      <c r="H51" s="479"/>
+      <c r="F51" s="447"/>
+      <c r="G51" s="447"/>
+      <c r="H51" s="447"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="479">
+      <c r="J51" s="447">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="479"/>
-      <c r="L51" s="479"/>
-      <c r="M51" s="479"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="447"/>
+      <c r="M51" s="447"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -23160,58 +23160,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -23228,6 +23176,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23247,7 +23247,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -23266,31 +23266,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-      <c r="I1" s="498"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="500"/>
+      <c r="I1" s="501"/>
     </row>
     <row r="2" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="491">
+      <c r="A2" s="494">
         <f>+SUN!J3</f>
         <v>0</v>
       </c>
-      <c r="B2" s="492"/>
-      <c r="C2" s="492"/>
-      <c r="D2" s="492"/>
-      <c r="E2" s="492"/>
-      <c r="F2" s="492"/>
-      <c r="G2" s="492"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="493"/>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="495"/>
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="496"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="105"/>
@@ -24386,10 +24386,10 @@
       <c r="I37" s="148"/>
     </row>
     <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="494" t="s">
+      <c r="A38" s="497" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="495"/>
+      <c r="B38" s="498"/>
       <c r="C38" s="213" t="s">
         <v>108</v>
       </c>
@@ -24410,7 +24410,7 @@
         <f>I5</f>
         <v>0</v>
       </c>
-      <c r="C39" s="501"/>
+      <c r="C39" s="424"/>
       <c r="D39" s="175">
         <f>+IF(C39=0,0,(B39-C39)/C39)</f>
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <f>I29</f>
         <v>0</v>
       </c>
-      <c r="C40" s="502">
+      <c r="C40" s="425">
         <v>0</v>
       </c>
       <c r="D40" s="175">
@@ -24450,7 +24450,7 @@
         <f>+IF(I6=0,0,($I$21-$I$16)/$I$6)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="502">
+      <c r="C41" s="425">
         <v>0</v>
       </c>
       <c r="D41" s="175">
@@ -24471,7 +24471,7 @@
         <f>+SUM(I22:I24)/$I$6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C42" s="502">
+      <c r="C42" s="425">
         <v>0</v>
       </c>
       <c r="D42" s="175">
@@ -24492,7 +24492,7 @@
         <f>+I25/$I$6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C43" s="502">
+      <c r="C43" s="425">
         <v>0</v>
       </c>
       <c r="D43" s="175">
@@ -24513,7 +24513,7 @@
         <f>+I26/$I$6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C44" s="502">
+      <c r="C44" s="425">
         <v>0</v>
       </c>
       <c r="D44" s="175">
@@ -24534,7 +24534,7 @@
         <f>I35</f>
         <v>0</v>
       </c>
-      <c r="C45" s="502">
+      <c r="C45" s="425">
         <v>0</v>
       </c>
       <c r="D45" s="175">
@@ -24551,10 +24551,10 @@
       <c r="A46" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="503">
-        <v>0</v>
-      </c>
-      <c r="C46" s="502">
+      <c r="B46" s="426">
+        <v>0</v>
+      </c>
+      <c r="C46" s="425">
         <v>0</v>
       </c>
       <c r="D46" s="175">
@@ -24712,76 +24712,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="499" t="s">
+      <c r="B1" s="502" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
-      <c r="F1" s="499"/>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
       <c r="J1" s="323"/>
       <c r="K1" s="323"/>
-      <c r="L1" s="499" t="s">
+      <c r="L1" s="502" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="499"/>
-      <c r="N1" s="499"/>
-      <c r="O1" s="499"/>
-      <c r="P1" s="499"/>
-      <c r="Q1" s="499"/>
-      <c r="R1" s="499"/>
-      <c r="S1" s="499"/>
+      <c r="M1" s="502"/>
+      <c r="N1" s="502"/>
+      <c r="O1" s="502"/>
+      <c r="P1" s="502"/>
+      <c r="Q1" s="502"/>
+      <c r="R1" s="502"/>
+      <c r="S1" s="502"/>
     </row>
     <row r="2" spans="1:19" s="324" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="323"/>
-      <c r="B2" s="499" t="s">
+      <c r="B2" s="502" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="499"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="499"/>
+      <c r="C2" s="502"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="502"/>
+      <c r="F2" s="502"/>
+      <c r="G2" s="502"/>
+      <c r="H2" s="502"/>
+      <c r="I2" s="502"/>
       <c r="K2" s="323"/>
-      <c r="L2" s="499" t="s">
+      <c r="L2" s="502" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="499"/>
-      <c r="N2" s="499"/>
-      <c r="O2" s="499"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
-      <c r="R2" s="499"/>
-      <c r="S2" s="499"/>
+      <c r="M2" s="502"/>
+      <c r="N2" s="502"/>
+      <c r="O2" s="502"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
+      <c r="R2" s="502"/>
+      <c r="S2" s="502"/>
     </row>
     <row r="3" spans="1:19" s="324" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="500">
+      <c r="B3" s="503">
         <f>+SUN!J3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="500"/>
-      <c r="D3" s="500"/>
-      <c r="E3" s="500"/>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="500"/>
-      <c r="L3" s="500">
+      <c r="C3" s="503"/>
+      <c r="D3" s="503"/>
+      <c r="E3" s="503"/>
+      <c r="F3" s="503"/>
+      <c r="G3" s="503"/>
+      <c r="H3" s="503"/>
+      <c r="I3" s="503"/>
+      <c r="L3" s="503">
         <f>+B3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="500"/>
-      <c r="N3" s="500"/>
-      <c r="O3" s="500"/>
-      <c r="P3" s="500"/>
-      <c r="Q3" s="500"/>
-      <c r="R3" s="500"/>
-      <c r="S3" s="500"/>
+      <c r="M3" s="503"/>
+      <c r="N3" s="503"/>
+      <c r="O3" s="503"/>
+      <c r="P3" s="503"/>
+      <c r="Q3" s="503"/>
+      <c r="R3" s="503"/>
+      <c r="S3" s="503"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="145"/>

--- a/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D259A938-9BB4-4E40-BECF-38CD07F5DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685CB62-577E-4B64-A89C-1C60B4341ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="708" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2563,48 +2563,186 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="15" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2614,19 +2752,7 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2636,132 +2762,6 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3713,8 +3713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3743,56 +3743,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -3802,14 +3802,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -3839,12 +3839,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -3936,29 +3936,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -3980,10 +3980,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -3993,15 +3993,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4026,27 +4026,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="375">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4068,13 +4068,13 @@
       </c>
       <c r="B10" s="338"/>
       <c r="C10" s="339"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4099,13 +4099,13 @@
       </c>
       <c r="B11" s="336"/>
       <c r="C11" s="337"/>
-      <c r="D11" s="398"/>
-      <c r="E11" s="399"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="407"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4139,13 +4139,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="279"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="381"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4176,11 +4176,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4196,11 +4196,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4235,13 +4235,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4273,11 +4273,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4290,11 +4290,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4366,22 +4366,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40200</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="375">
+      <c r="I17" s="391">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4472,23 +4472,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4510,9 +4510,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -4545,9 +4545,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -4580,9 +4580,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -4623,9 +4623,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -4658,9 +4658,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -4779,12 +4779,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -4819,9 +4819,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -4844,9 +4844,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -4873,15 +4873,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -4919,9 +4919,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -4946,9 +4946,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -4957,14 +4957,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -4994,11 +4994,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="388"/>
-      <c r="O34" s="388"/>
-      <c r="P34" s="388"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="388"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -5027,11 +5027,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -5041,12 +5041,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5060,11 +5060,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -5073,11 +5073,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5092,25 +5092,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="385"/>
+      <c r="F38" s="386"/>
+      <c r="G38" s="387"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5122,11 +5122,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -5136,14 +5136,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="385"/>
+      <c r="F39" s="386"/>
+      <c r="G39" s="387"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5176,9 +5176,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="386"/>
+      <c r="G40" s="387"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5209,9 +5209,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="387"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5226,14 +5226,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -5259,11 +5259,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -5284,11 +5284,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -5312,11 +5312,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -5343,11 +5343,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -5367,11 +5367,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -5490,20 +5490,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
-      <c r="J51" s="419">
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -6327,12 +6327,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D12:E12"/>
@@ -6349,52 +6389,12 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6413,8 +6413,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6464,33 +6464,33 @@
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -6500,17 +6500,17 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413">
+      <c r="J3" s="400">
         <f>+MON!J3+1</f>
         <v>1</v>
       </c>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -6540,12 +6540,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -6637,29 +6637,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -6681,10 +6681,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -6694,15 +6694,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -6727,27 +6727,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="375">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -6769,13 +6769,13 @@
       </c>
       <c r="B10" s="338"/>
       <c r="C10" s="339"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -6800,13 +6800,13 @@
       </c>
       <c r="B11" s="336"/>
       <c r="C11" s="337"/>
-      <c r="D11" s="398"/>
-      <c r="E11" s="399"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="407"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -6840,13 +6840,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="381"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -6877,11 +6877,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f>SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" ref="E13" si="0">SUM(E10:E12)</f>
         <v>0</v>
       </c>
@@ -6897,11 +6897,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -6936,13 +6936,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -6974,11 +6974,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -6991,11 +6991,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7067,22 +7067,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40200</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="375">
+      <c r="I17" s="391">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7173,23 +7173,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7211,9 +7211,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7246,9 +7246,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7281,9 +7281,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7324,9 +7324,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7359,9 +7359,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7480,12 +7480,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -7520,9 +7520,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -7545,9 +7545,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -7574,15 +7574,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -7619,9 +7619,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -7646,9 +7646,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -7657,14 +7657,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -7694,11 +7694,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="388"/>
-      <c r="O34" s="388"/>
-      <c r="P34" s="388"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="388"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -7727,11 +7727,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -7741,12 +7741,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -7760,11 +7760,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -7773,11 +7773,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -7792,25 +7792,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="385"/>
+      <c r="F38" s="386"/>
+      <c r="G38" s="387"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -7822,11 +7822,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -7836,14 +7836,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="385"/>
+      <c r="F39" s="386"/>
+      <c r="G39" s="387"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -7876,9 +7876,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="386"/>
+      <c r="G40" s="387"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -7909,9 +7909,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="387"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -7926,14 +7926,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -7959,11 +7959,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -7984,11 +7984,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -8012,11 +8012,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -8043,11 +8043,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -8067,11 +8067,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -8190,20 +8190,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>1</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
-      <c r="J51" s="419">
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>1</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -9048,48 +9048,15 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -9106,15 +9073,48 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -9133,8 +9133,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9164,56 +9164,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -9223,14 +9223,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -9260,12 +9260,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -9357,29 +9357,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -9401,10 +9401,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -9414,15 +9414,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -9447,27 +9447,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="375">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -9489,13 +9489,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -9525,8 +9525,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -9560,13 +9560,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="381"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -9597,11 +9597,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9617,11 +9617,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -9656,13 +9656,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -9694,11 +9694,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -9711,11 +9711,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -9787,22 +9787,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40200</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="375">
+      <c r="I17" s="391">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -9893,23 +9893,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -9931,9 +9931,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -9966,9 +9966,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -10001,9 +10001,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10044,9 +10044,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10081,9 +10081,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10202,12 +10202,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -10242,9 +10242,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10269,9 +10269,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10298,15 +10298,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10343,9 +10343,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -10370,9 +10370,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -10381,14 +10381,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -10418,11 +10418,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="388"/>
-      <c r="O34" s="388"/>
-      <c r="P34" s="388"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="388"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -10451,11 +10451,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -10465,12 +10465,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -10484,11 +10484,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -10497,11 +10497,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -10516,25 +10516,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="385"/>
+      <c r="F38" s="386"/>
+      <c r="G38" s="387"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -10546,11 +10546,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -10560,14 +10560,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="385"/>
+      <c r="F39" s="386"/>
+      <c r="G39" s="387"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -10600,9 +10600,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="386"/>
+      <c r="G40" s="387"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -10633,9 +10633,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="387"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -10650,14 +10650,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -10683,11 +10683,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -10708,11 +10708,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -10736,11 +10736,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -10767,11 +10767,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -10791,11 +10791,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -10914,20 +10914,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
-      <c r="J51" s="419">
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -11768,6 +11768,61 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -11781,61 +11836,6 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -11854,8 +11854,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11884,56 +11884,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11943,14 +11943,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -11980,12 +11980,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12077,29 +12077,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -12121,10 +12121,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -12134,15 +12134,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -12167,27 +12167,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="375">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -12209,13 +12209,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -12245,8 +12245,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -12280,13 +12280,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="381"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -12317,11 +12317,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12337,11 +12337,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -12376,13 +12376,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -12414,11 +12414,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -12431,11 +12431,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -12507,22 +12507,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40200</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="375">
+      <c r="I17" s="391">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -12613,23 +12613,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -12651,9 +12651,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -12686,9 +12686,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -12721,9 +12721,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -12764,9 +12764,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -12799,9 +12799,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -12921,12 +12921,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -12961,9 +12961,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -12988,9 +12988,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13017,15 +13017,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13062,9 +13062,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13089,9 +13089,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13100,14 +13100,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -13137,11 +13137,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="388"/>
-      <c r="O34" s="388"/>
-      <c r="P34" s="388"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="388"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -13170,11 +13170,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -13184,12 +13184,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -13203,11 +13203,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -13216,11 +13216,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -13235,25 +13235,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="391"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="393"/>
+      <c r="E38" s="385"/>
+      <c r="F38" s="386"/>
+      <c r="G38" s="387"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -13265,11 +13265,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -13279,14 +13279,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="391"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="393"/>
+      <c r="E39" s="385"/>
+      <c r="F39" s="386"/>
+      <c r="G39" s="387"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -13319,9 +13319,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="391"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="393"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="386"/>
+      <c r="G40" s="387"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -13352,9 +13352,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="391"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="393"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="387"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -13369,14 +13369,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -13402,11 +13402,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -13427,11 +13427,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -13455,11 +13455,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -13486,11 +13486,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -13510,11 +13510,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -13633,20 +13633,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
-      <c r="J51" s="419">
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -14461,58 +14461,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -14529,6 +14477,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -14547,8 +14547,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14577,56 +14577,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -14636,14 +14636,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -14673,12 +14673,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -14770,29 +14770,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -14814,10 +14814,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -14827,15 +14827,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -14860,27 +14860,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="375">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -14902,13 +14902,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -14938,8 +14938,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -14973,13 +14973,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="381"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -15010,11 +15010,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15030,11 +15030,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -15069,13 +15069,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -15107,11 +15107,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -15124,11 +15124,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -15200,22 +15200,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40200</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="375">
+      <c r="I17" s="391">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -15306,23 +15306,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -15344,9 +15344,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -15379,9 +15379,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -15414,9 +15414,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -15457,9 +15457,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -15492,9 +15492,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -15613,12 +15613,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -15655,9 +15655,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -15682,9 +15682,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -15711,15 +15711,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -15756,9 +15756,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -15783,9 +15783,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -15794,14 +15794,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -15831,11 +15831,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="388"/>
-      <c r="O34" s="388"/>
-      <c r="P34" s="388"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="388"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -15864,11 +15864,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -15878,12 +15878,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -15897,11 +15897,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -15910,11 +15910,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -15929,25 +15929,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="369"/>
-      <c r="F38" s="370"/>
-      <c r="G38" s="371"/>
+      <c r="E38" s="364"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="366"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -15959,11 +15959,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -15973,14 +15973,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="369"/>
-      <c r="F39" s="370"/>
-      <c r="G39" s="371"/>
+      <c r="E39" s="364"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="366"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -16013,9 +16013,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="369"/>
-      <c r="F40" s="370"/>
-      <c r="G40" s="371"/>
+      <c r="E40" s="364"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="366"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -16046,9 +16046,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="369"/>
-      <c r="F41" s="370"/>
-      <c r="G41" s="371"/>
+      <c r="E41" s="364"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="366"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -16063,14 +16063,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -16096,11 +16096,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -16121,11 +16121,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -16149,11 +16149,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -16181,11 +16181,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -16205,11 +16205,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -16328,20 +16328,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
-      <c r="J51" s="419">
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -17205,58 +17205,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -17273,6 +17221,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -17293,8 +17293,8 @@
   </sheetPr>
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17324,56 +17324,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -17383,14 +17383,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -17420,12 +17420,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17517,29 +17517,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -17561,10 +17561,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -17574,15 +17574,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -17607,27 +17607,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="375">
         <v>40900</v>
       </c>
-      <c r="J9" s="382"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -17649,13 +17649,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -17685,8 +17685,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -17725,8 +17725,8 @@
       <c r="F12" s="189"/>
       <c r="G12" s="189"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="416"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="381"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -17757,11 +17757,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17777,11 +17777,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -17816,13 +17816,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -17854,11 +17854,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -17871,11 +17871,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -17947,22 +17947,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40200</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40300</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="375">
+      <c r="I17" s="391">
         <v>40600</v>
       </c>
-      <c r="J17" s="377"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18053,23 +18053,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18091,9 +18091,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18126,9 +18126,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18161,9 +18161,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18204,9 +18204,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18241,9 +18241,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18362,12 +18362,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -18402,9 +18402,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18429,9 +18429,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18458,15 +18458,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18503,9 +18503,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18530,9 +18530,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -18541,14 +18541,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -18578,11 +18578,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="388"/>
-      <c r="O34" s="388"/>
-      <c r="P34" s="388"/>
-      <c r="Q34" s="388"/>
-      <c r="R34" s="388"/>
+      <c r="N34" s="416"/>
+      <c r="O34" s="416"/>
+      <c r="P34" s="416"/>
+      <c r="Q34" s="416"/>
+      <c r="R34" s="416"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -18611,11 +18611,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -18626,12 +18626,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -18645,11 +18645,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -18658,11 +18658,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -18677,25 +18677,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="369"/>
-      <c r="F38" s="370"/>
-      <c r="G38" s="371"/>
+      <c r="E38" s="364"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="366"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -18707,11 +18707,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -18721,14 +18721,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="369"/>
-      <c r="F39" s="370"/>
-      <c r="G39" s="371"/>
+      <c r="E39" s="364"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="366"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -18761,9 +18761,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="369"/>
-      <c r="F40" s="370"/>
-      <c r="G40" s="371"/>
+      <c r="E40" s="364"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="366"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -18794,9 +18794,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="369"/>
-      <c r="F41" s="370"/>
-      <c r="G41" s="371"/>
+      <c r="E41" s="364"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="366"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -18811,14 +18811,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -18844,11 +18844,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -18868,11 +18868,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -18896,11 +18896,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -18927,11 +18927,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -18951,11 +18951,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -19074,21 +19074,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="419">
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -19960,58 +19960,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -20028,6 +19976,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -20046,8 +20046,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -20076,56 +20076,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="406"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
+      <c r="A1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="407" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="409" t="s">
+      <c r="A2" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="411"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="364" t="s">
+      <c r="T2" s="419" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="365"/>
+      <c r="U2" s="420"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -20135,14 +20135,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="412" t="s">
+      <c r="H3" s="399" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -20172,12 +20172,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="412"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
-      <c r="M4" s="414"/>
+      <c r="J4" s="401"/>
+      <c r="K4" s="401"/>
+      <c r="L4" s="401"/>
+      <c r="M4" s="401"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20269,29 +20269,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="397"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="394" t="s">
+      <c r="D7" s="405"/>
+      <c r="E7" s="403"/>
+      <c r="F7" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="395"/>
+      <c r="G7" s="403"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="395"/>
+      <c r="J7" s="403"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="394" t="s">
+      <c r="L7" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="396"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
@@ -20310,10 +20310,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="400" t="s">
+      <c r="D8" s="410" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="401"/>
+      <c r="E8" s="411"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -20321,13 +20321,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="157"/>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="374"/>
       <c r="K8" s="158"/>
-      <c r="L8" s="402" t="s">
+      <c r="L8" s="412" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="414" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20349,21 +20349,21 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="375">
         <v>40100</v>
       </c>
-      <c r="D9" s="383"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="381">
+      <c r="D9" s="425"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="375">
         <v>40200</v>
       </c>
-      <c r="G9" s="382"/>
+      <c r="G9" s="376"/>
       <c r="H9" s="104"/>
-      <c r="I9" s="381"/>
-      <c r="J9" s="382"/>
+      <c r="I9" s="375"/>
+      <c r="J9" s="376"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="403"/>
-      <c r="M9" s="405"/>
+      <c r="L9" s="413"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
@@ -20382,13 +20382,13 @@
       </c>
       <c r="B10" s="338"/>
       <c r="C10" s="339"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="248"/>
       <c r="G10" s="339"/>
       <c r="H10" s="339"/>
-      <c r="I10" s="384"/>
-      <c r="J10" s="385"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="409"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20413,13 +20413,13 @@
       </c>
       <c r="B11" s="336"/>
       <c r="C11" s="337"/>
-      <c r="D11" s="398"/>
-      <c r="E11" s="399"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="407"/>
       <c r="F11" s="304"/>
       <c r="G11" s="352"/>
       <c r="H11" s="352"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="I11" s="426"/>
+      <c r="J11" s="427"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -20453,13 +20453,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="332"/>
-      <c r="I12" s="417"/>
-      <c r="J12" s="418"/>
+      <c r="I12" s="382"/>
+      <c r="J12" s="383"/>
       <c r="K12" s="332"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -20490,11 +20490,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="420">
+      <c r="D13" s="367">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="421">
+      <c r="E13" s="368">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20510,11 +20510,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="420">
+      <c r="I13" s="367">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="421">
+      <c r="J13" s="368">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -20549,13 +20549,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="D14" s="369"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
+      <c r="I14" s="369"/>
+      <c r="J14" s="370"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -20586,11 +20586,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="371">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="425"/>
+      <c r="E15" s="372"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -20603,11 +20603,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="424">
+      <c r="I15" s="371">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="425"/>
+      <c r="J15" s="372"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -20680,18 +20680,18 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="391">
         <v>40100</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="375">
+      <c r="D17" s="421"/>
+      <c r="E17" s="392"/>
+      <c r="F17" s="391">
         <v>40200</v>
       </c>
-      <c r="G17" s="377"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="375"/>
-      <c r="J17" s="377"/>
+      <c r="I17" s="391"/>
+      <c r="J17" s="392"/>
       <c r="K17" s="5"/>
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
@@ -20779,23 +20779,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="366" t="s">
+      <c r="A20" s="377" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="367"/>
-      <c r="C20" s="368"/>
+      <c r="B20" s="378"/>
+      <c r="C20" s="379"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="366" t="s">
+      <c r="E20" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="368"/>
-      <c r="J20" s="366" t="s">
+      <c r="F20" s="378"/>
+      <c r="G20" s="378"/>
+      <c r="H20" s="379"/>
+      <c r="J20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="367"/>
-      <c r="L20" s="368"/>
+      <c r="K20" s="378"/>
+      <c r="L20" s="379"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -20817,9 +20817,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="365"/>
+      <c r="G21" s="366"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -20852,9 +20852,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="366"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -20887,9 +20887,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="365"/>
+      <c r="G23" s="366"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -20930,9 +20930,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="373"/>
-      <c r="G24" s="374"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="389"/>
+      <c r="G24" s="390"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -20965,9 +20965,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="372"/>
-      <c r="F25" s="373"/>
-      <c r="G25" s="374"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="389"/>
+      <c r="G25" s="390"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21086,12 +21086,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="366" t="s">
+      <c r="E28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="368"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -21128,9 +21128,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="374"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="390"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21155,9 +21155,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="374"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="389"/>
+      <c r="G30" s="390"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21184,15 +21184,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="378" t="s">
+      <c r="A31" s="422" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="424"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="372"/>
-      <c r="F31" s="373"/>
-      <c r="G31" s="374"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="390"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21229,9 +21229,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="372"/>
-      <c r="F32" s="373"/>
-      <c r="G32" s="374"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="390"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21256,9 +21256,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="372"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="374"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="389"/>
+      <c r="G33" s="390"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -21267,14 +21267,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="389" t="s">
+      <c r="N33" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="389"/>
-      <c r="P33" s="389"/>
-      <c r="Q33" s="389"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
+      <c r="O33" s="417"/>
+      <c r="P33" s="417"/>
+      <c r="Q33" s="417"/>
+      <c r="R33" s="417"/>
+      <c r="S33" s="417"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -21337,11 +21337,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="388"/>
-      <c r="O35" s="388"/>
-      <c r="P35" s="388"/>
-      <c r="Q35" s="388"/>
-      <c r="R35" s="388"/>
+      <c r="N35" s="416"/>
+      <c r="O35" s="416"/>
+      <c r="P35" s="416"/>
+      <c r="Q35" s="416"/>
+      <c r="R35" s="416"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -21351,12 +21351,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="366" t="s">
+      <c r="E36" s="377" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="368"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21370,11 +21370,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
-      <c r="P36" s="388"/>
-      <c r="Q36" s="388"/>
-      <c r="R36" s="388"/>
+      <c r="N36" s="416"/>
+      <c r="O36" s="416"/>
+      <c r="P36" s="416"/>
+      <c r="Q36" s="416"/>
+      <c r="R36" s="416"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -21383,11 +21383,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="364" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="366"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21402,25 +21402,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="388"/>
-      <c r="O37" s="388"/>
-      <c r="P37" s="388"/>
-      <c r="Q37" s="388"/>
-      <c r="R37" s="388"/>
+      <c r="N37" s="416"/>
+      <c r="O37" s="416"/>
+      <c r="P37" s="416"/>
+      <c r="Q37" s="416"/>
+      <c r="R37" s="416"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="390"/>
+      <c r="B38" s="418"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="369"/>
-      <c r="F38" s="370"/>
-      <c r="G38" s="371"/>
+      <c r="E38" s="364"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="366"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21432,11 +21432,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="388"/>
-      <c r="O38" s="388"/>
-      <c r="P38" s="388"/>
-      <c r="Q38" s="388"/>
-      <c r="R38" s="388"/>
+      <c r="N38" s="416"/>
+      <c r="O38" s="416"/>
+      <c r="P38" s="416"/>
+      <c r="Q38" s="416"/>
+      <c r="R38" s="416"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -21446,14 +21446,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="95">
-        <f>C29+C33+C34+C35</f>
+        <f>C29+C34+C35+C36</f>
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="369"/>
-      <c r="F39" s="370"/>
-      <c r="G39" s="371"/>
+      <c r="E39" s="364"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="366"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -21486,9 +21486,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="369"/>
-      <c r="F40" s="370"/>
-      <c r="G40" s="371"/>
+      <c r="E40" s="364"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="366"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -21519,9 +21519,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="369"/>
-      <c r="F41" s="370"/>
-      <c r="G41" s="371"/>
+      <c r="E41" s="364"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="366"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -21536,14 +21536,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="389" t="s">
+      <c r="N41" s="417" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="389"/>
-      <c r="P41" s="389"/>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="O41" s="417"/>
+      <c r="P41" s="417"/>
+      <c r="Q41" s="417"/>
+      <c r="R41" s="417"/>
+      <c r="S41" s="417"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -21569,11 +21569,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="388"/>
-      <c r="O42" s="388"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
+      <c r="N42" s="416"/>
+      <c r="O42" s="416"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -21593,11 +21593,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="388"/>
-      <c r="R43" s="388"/>
+      <c r="N43" s="416"/>
+      <c r="O43" s="416"/>
+      <c r="P43" s="416"/>
+      <c r="Q43" s="416"/>
+      <c r="R43" s="416"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -21621,11 +21621,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="388"/>
-      <c r="O44" s="388"/>
-      <c r="P44" s="388"/>
-      <c r="Q44" s="388"/>
-      <c r="R44" s="388"/>
+      <c r="N44" s="416"/>
+      <c r="O44" s="416"/>
+      <c r="P44" s="416"/>
+      <c r="Q44" s="416"/>
+      <c r="R44" s="416"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -21652,11 +21652,11 @@
         <v>173.89</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="388"/>
-      <c r="O45" s="388"/>
-      <c r="P45" s="388"/>
-      <c r="Q45" s="388"/>
-      <c r="R45" s="388"/>
+      <c r="N45" s="416"/>
+      <c r="O45" s="416"/>
+      <c r="P45" s="416"/>
+      <c r="Q45" s="416"/>
+      <c r="R45" s="416"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -21676,11 +21676,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="388"/>
-      <c r="O46" s="388"/>
-      <c r="P46" s="388"/>
-      <c r="Q46" s="388"/>
-      <c r="R46" s="388"/>
+      <c r="N46" s="416"/>
+      <c r="O46" s="416"/>
+      <c r="P46" s="416"/>
+      <c r="Q46" s="416"/>
+      <c r="R46" s="416"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -21797,21 +21797,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="419">
+      <c r="E51" s="384">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="419"/>
-      <c r="G51" s="419"/>
-      <c r="H51" s="419"/>
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="419">
+      <c r="J51" s="384">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="419"/>
-      <c r="L51" s="419"/>
-      <c r="M51" s="419"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -22691,58 +22691,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -22759,6 +22707,58 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685CB62-577E-4B64-A89C-1C60B4341ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E440688-6670-41CB-82DB-2F31B65C1C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="708" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="708" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MON" sheetId="1" r:id="rId1"/>
@@ -2563,6 +2563,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="15" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2572,28 +2587,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2602,14 +2620,105 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2630,138 +2739,29 @@
     <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3713,8 +3713,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3743,56 +3743,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
+      <c r="A1" s="406"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
+      <c r="S1" s="406"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -3802,14 +3802,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -3839,12 +3839,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -3936,29 +3936,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -3980,10 +3980,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -3993,15 +3993,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4026,27 +4026,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="376"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4068,13 +4068,13 @@
       </c>
       <c r="B10" s="338"/>
       <c r="C10" s="339"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4099,13 +4099,13 @@
       </c>
       <c r="B11" s="336"/>
       <c r="C11" s="337"/>
-      <c r="D11" s="406"/>
-      <c r="E11" s="407"/>
+      <c r="D11" s="398"/>
+      <c r="E11" s="399"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4139,13 +4139,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="279"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="383"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4176,11 +4176,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4196,11 +4196,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4235,13 +4235,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4273,11 +4273,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4290,11 +4290,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4366,22 +4366,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40200</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40300</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="391">
+      <c r="I17" s="375">
         <v>40600</v>
       </c>
-      <c r="J17" s="392"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4472,23 +4472,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4510,9 +4510,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -4545,9 +4545,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -4580,9 +4580,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -4623,9 +4623,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -4658,9 +4658,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -4779,12 +4779,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -4819,9 +4819,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -4844,9 +4844,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -4873,15 +4873,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -4919,9 +4919,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -4946,9 +4946,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -4957,14 +4957,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -4994,11 +4994,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="388"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -5027,11 +5027,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -5041,12 +5041,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5060,11 +5060,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -5073,11 +5073,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5092,25 +5092,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="385"/>
-      <c r="F38" s="386"/>
-      <c r="G38" s="387"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5122,11 +5122,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -5141,9 +5141,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="385"/>
-      <c r="F39" s="386"/>
-      <c r="G39" s="387"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5176,9 +5176,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="385"/>
-      <c r="F40" s="386"/>
-      <c r="G40" s="387"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5209,9 +5209,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="385"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="387"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5226,14 +5226,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -5259,11 +5259,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -5284,11 +5284,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -5312,11 +5312,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -5343,11 +5343,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -5367,11 +5367,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -5490,20 +5490,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="J51" s="384">
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
+      <c r="J51" s="419">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -6327,6 +6327,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E21:G21"/>
@@ -6343,58 +6395,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6413,8 +6413,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6464,33 +6464,33 @@
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -6500,17 +6500,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400">
-        <f>+MON!J3+1</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -6540,12 +6537,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -6637,29 +6634,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -6681,10 +6678,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -6694,15 +6691,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -6727,27 +6724,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="376"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -6769,13 +6766,13 @@
       </c>
       <c r="B10" s="338"/>
       <c r="C10" s="339"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -6800,13 +6797,13 @@
       </c>
       <c r="B11" s="336"/>
       <c r="C11" s="337"/>
-      <c r="D11" s="406"/>
-      <c r="E11" s="407"/>
+      <c r="D11" s="398"/>
+      <c r="E11" s="399"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -6840,13 +6837,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="383"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -6877,11 +6874,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f>SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" ref="E13" si="0">SUM(E10:E12)</f>
         <v>0</v>
       </c>
@@ -6897,11 +6894,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -6936,13 +6933,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -6974,11 +6971,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -6991,11 +6988,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7067,22 +7064,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40200</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40300</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="391">
+      <c r="I17" s="375">
         <v>40600</v>
       </c>
-      <c r="J17" s="392"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7173,23 +7170,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7211,9 +7208,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7246,9 +7243,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7281,9 +7278,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7324,9 +7321,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7359,9 +7356,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7480,12 +7477,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -7520,9 +7517,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -7545,9 +7542,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -7574,15 +7571,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -7619,9 +7616,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -7646,9 +7643,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -7657,14 +7654,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -7694,11 +7691,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="388"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -7727,11 +7724,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -7741,12 +7738,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -7760,11 +7757,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -7773,11 +7770,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -7792,25 +7789,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="385"/>
-      <c r="F38" s="386"/>
-      <c r="G38" s="387"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -7822,11 +7819,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -7841,9 +7838,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="385"/>
-      <c r="F39" s="386"/>
-      <c r="G39" s="387"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -7876,9 +7873,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="385"/>
-      <c r="F40" s="386"/>
-      <c r="G40" s="387"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -7909,9 +7906,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="385"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="387"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -7926,14 +7923,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -7959,11 +7956,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -7984,11 +7981,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -8012,11 +8009,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -8043,11 +8040,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -8067,11 +8064,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -8190,20 +8187,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="J51" s="384">
+        <v>0</v>
+      </c>
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
+      <c r="J51" s="419">
         <f>+J3</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -9048,15 +9045,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -9073,48 +9103,15 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -9133,8 +9130,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9164,56 +9161,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
+      <c r="A1" s="406"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
+      <c r="S1" s="406"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -9223,14 +9220,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -9260,12 +9257,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -9357,29 +9354,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -9401,10 +9398,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -9414,15 +9411,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -9447,27 +9444,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="376"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -9489,13 +9486,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -9525,8 +9522,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -9560,13 +9557,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="383"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -9597,11 +9594,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9617,11 +9614,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -9656,13 +9653,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -9694,11 +9691,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -9711,11 +9708,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -9787,22 +9784,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40200</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40300</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="391">
+      <c r="I17" s="375">
         <v>40600</v>
       </c>
-      <c r="J17" s="392"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -9893,23 +9890,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -9931,9 +9928,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -9966,9 +9963,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -10001,9 +9998,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10044,9 +10041,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10081,9 +10078,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10202,12 +10199,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -10242,9 +10239,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10269,9 +10266,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10298,15 +10295,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10343,9 +10340,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -10370,9 +10367,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -10381,14 +10378,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -10418,11 +10415,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="388"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -10451,11 +10448,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -10465,12 +10462,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -10484,11 +10481,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -10497,11 +10494,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -10516,25 +10513,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="385"/>
-      <c r="F38" s="386"/>
-      <c r="G38" s="387"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -10546,11 +10543,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -10565,9 +10562,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="385"/>
-      <c r="F39" s="386"/>
-      <c r="G39" s="387"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -10600,9 +10597,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="385"/>
-      <c r="F40" s="386"/>
-      <c r="G40" s="387"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -10633,9 +10630,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="385"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="387"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -10650,14 +10647,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -10683,11 +10680,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -10708,11 +10705,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -10736,11 +10733,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -10767,11 +10764,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -10791,11 +10788,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -10914,20 +10911,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="J51" s="384">
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
+      <c r="J51" s="419">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -11768,61 +11765,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -11836,6 +11778,61 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -11854,8 +11851,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11884,56 +11881,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
+      <c r="A1" s="406"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
+      <c r="S1" s="406"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11943,14 +11940,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -11980,12 +11977,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12077,29 +12074,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -12121,10 +12118,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -12134,15 +12131,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -12167,27 +12164,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="376"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -12209,13 +12206,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -12245,8 +12242,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -12280,13 +12277,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="383"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -12317,11 +12314,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12337,11 +12334,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -12376,13 +12373,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -12414,11 +12411,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -12431,11 +12428,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -12507,22 +12504,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40200</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40300</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="391">
+      <c r="I17" s="375">
         <v>40600</v>
       </c>
-      <c r="J17" s="392"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -12613,23 +12610,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -12651,9 +12648,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -12686,9 +12683,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -12721,9 +12718,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -12764,9 +12761,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -12799,9 +12796,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -12921,12 +12918,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -12961,9 +12958,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -12988,9 +12985,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13017,15 +13014,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13062,9 +13059,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13089,9 +13086,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13100,14 +13097,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -13137,11 +13134,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="388"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -13170,11 +13167,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -13184,12 +13181,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -13203,11 +13200,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -13216,11 +13213,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -13235,25 +13232,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="385"/>
-      <c r="F38" s="386"/>
-      <c r="G38" s="387"/>
+      <c r="E38" s="391"/>
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -13265,11 +13262,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -13284,9 +13281,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="385"/>
-      <c r="F39" s="386"/>
-      <c r="G39" s="387"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="392"/>
+      <c r="G39" s="393"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -13319,9 +13316,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="385"/>
-      <c r="F40" s="386"/>
-      <c r="G40" s="387"/>
+      <c r="E40" s="391"/>
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -13352,9 +13349,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="385"/>
-      <c r="F41" s="386"/>
-      <c r="G41" s="387"/>
+      <c r="E41" s="391"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="393"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -13369,14 +13366,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -13402,11 +13399,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -13427,11 +13424,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -13455,11 +13452,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -13486,11 +13483,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -13510,11 +13507,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -13633,20 +13630,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="J51" s="384">
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
+      <c r="J51" s="419">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -14461,6 +14458,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -14477,58 +14526,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -14577,56 +14574,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
+      <c r="A1" s="406"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
+      <c r="S1" s="406"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -14636,14 +14633,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -14673,12 +14670,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -14770,29 +14767,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -14814,10 +14811,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -14827,15 +14824,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -14860,27 +14857,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="376"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -14902,13 +14899,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -14938,8 +14935,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -14973,13 +14970,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="383"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -15010,11 +15007,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15030,11 +15027,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -15069,13 +15066,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -15107,11 +15104,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -15124,11 +15121,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -15200,22 +15197,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40200</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40300</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="391">
+      <c r="I17" s="375">
         <v>40600</v>
       </c>
-      <c r="J17" s="392"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -15306,23 +15303,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -15344,9 +15341,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -15379,9 +15376,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -15414,9 +15411,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -15457,9 +15454,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -15492,9 +15489,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -15613,12 +15610,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -15655,9 +15652,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -15682,9 +15679,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -15711,15 +15708,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -15756,9 +15753,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -15783,9 +15780,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -15794,14 +15791,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -15831,11 +15828,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="388"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -15864,11 +15861,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -15878,12 +15875,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -15897,11 +15894,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -15910,11 +15907,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -15929,25 +15926,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="364"/>
-      <c r="F38" s="365"/>
-      <c r="G38" s="366"/>
+      <c r="E38" s="369"/>
+      <c r="F38" s="370"/>
+      <c r="G38" s="371"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -15959,11 +15956,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -15978,9 +15975,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="364"/>
-      <c r="F39" s="365"/>
-      <c r="G39" s="366"/>
+      <c r="E39" s="369"/>
+      <c r="F39" s="370"/>
+      <c r="G39" s="371"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -16013,9 +16010,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="364"/>
-      <c r="F40" s="365"/>
-      <c r="G40" s="366"/>
+      <c r="E40" s="369"/>
+      <c r="F40" s="370"/>
+      <c r="G40" s="371"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -16046,9 +16043,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="364"/>
-      <c r="F41" s="365"/>
-      <c r="G41" s="366"/>
+      <c r="E41" s="369"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="371"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -16063,14 +16060,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -16096,11 +16093,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -16121,11 +16118,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -16149,11 +16146,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -16181,11 +16178,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -16205,11 +16202,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -16328,20 +16325,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="J51" s="384">
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
+      <c r="J51" s="419">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -17205,6 +17202,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -17221,58 +17270,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -17324,56 +17321,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
+      <c r="A1" s="406"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
+      <c r="S1" s="406"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -17383,14 +17380,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -17420,12 +17417,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17517,29 +17514,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -17561,10 +17558,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -17574,15 +17571,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -17607,27 +17604,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="381">
         <v>40900</v>
       </c>
-      <c r="J9" s="376"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -17649,13 +17646,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -17685,8 +17682,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -17725,8 +17722,8 @@
       <c r="F12" s="189"/>
       <c r="G12" s="189"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -17757,11 +17754,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17777,11 +17774,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -17816,13 +17813,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -17854,11 +17851,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -17871,11 +17868,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -17947,22 +17944,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40200</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40300</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="391">
+      <c r="I17" s="375">
         <v>40600</v>
       </c>
-      <c r="J17" s="392"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18053,23 +18050,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18091,9 +18088,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18126,9 +18123,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18161,9 +18158,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18204,9 +18201,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18241,9 +18238,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18362,12 +18359,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -18402,9 +18399,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18429,9 +18426,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18458,15 +18455,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18503,9 +18500,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18530,9 +18527,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -18541,14 +18538,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -18578,11 +18575,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="416"/>
-      <c r="O34" s="416"/>
-      <c r="P34" s="416"/>
-      <c r="Q34" s="416"/>
-      <c r="R34" s="416"/>
+      <c r="N34" s="388"/>
+      <c r="O34" s="388"/>
+      <c r="P34" s="388"/>
+      <c r="Q34" s="388"/>
+      <c r="R34" s="388"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -18611,11 +18608,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -18626,12 +18623,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -18645,11 +18642,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -18658,11 +18655,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -18677,25 +18674,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="364"/>
-      <c r="F38" s="365"/>
-      <c r="G38" s="366"/>
+      <c r="E38" s="369"/>
+      <c r="F38" s="370"/>
+      <c r="G38" s="371"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -18707,11 +18704,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -18726,9 +18723,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="364"/>
-      <c r="F39" s="365"/>
-      <c r="G39" s="366"/>
+      <c r="E39" s="369"/>
+      <c r="F39" s="370"/>
+      <c r="G39" s="371"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -18761,9 +18758,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="364"/>
-      <c r="F40" s="365"/>
-      <c r="G40" s="366"/>
+      <c r="E40" s="369"/>
+      <c r="F40" s="370"/>
+      <c r="G40" s="371"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -18794,9 +18791,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="364"/>
-      <c r="F41" s="365"/>
-      <c r="G41" s="366"/>
+      <c r="E41" s="369"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="371"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -18811,14 +18808,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -18844,11 +18841,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -18868,11 +18865,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -18896,11 +18893,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -18927,11 +18924,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -18951,11 +18948,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -19074,21 +19071,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="384">
+      <c r="J51" s="419">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -19960,6 +19957,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -19976,58 +20025,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -20046,7 +20043,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -20076,56 +20073,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393"/>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
+      <c r="A1" s="406"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
+      <c r="R1" s="406"/>
+      <c r="S1" s="406"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="395"/>
-      <c r="P2" s="396" t="s">
+      <c r="A2" s="407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="398"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="419" t="s">
+      <c r="T2" s="364" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="420"/>
+      <c r="U2" s="365"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -20135,14 +20132,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="399" t="s">
+      <c r="H3" s="412" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -20172,12 +20169,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="399"/>
+      <c r="H4" s="412"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="401"/>
-      <c r="K4" s="401"/>
-      <c r="L4" s="401"/>
-      <c r="M4" s="401"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="414"/>
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20269,29 +20266,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="405"/>
-      <c r="E7" s="403"/>
-      <c r="F7" s="402" t="s">
+      <c r="D7" s="397"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="403"/>
+      <c r="G7" s="395"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="402" t="s">
+      <c r="I7" s="394" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="403"/>
+      <c r="J7" s="395"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="402" t="s">
+      <c r="L7" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="404"/>
+      <c r="M7" s="396"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
@@ -20310,10 +20307,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="410" t="s">
+      <c r="D8" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="411"/>
+      <c r="E8" s="401"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -20321,13 +20318,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="157"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="374"/>
+      <c r="I8" s="426"/>
+      <c r="J8" s="427"/>
       <c r="K8" s="158"/>
-      <c r="L8" s="412" t="s">
+      <c r="L8" s="402" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="404" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20349,21 +20346,21 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="375">
+      <c r="C9" s="381">
         <v>40100</v>
       </c>
-      <c r="D9" s="425"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="375">
+      <c r="D9" s="383"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="381">
         <v>40200</v>
       </c>
-      <c r="G9" s="376"/>
+      <c r="G9" s="382"/>
       <c r="H9" s="104"/>
-      <c r="I9" s="375"/>
-      <c r="J9" s="376"/>
+      <c r="I9" s="381"/>
+      <c r="J9" s="382"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="413"/>
-      <c r="M9" s="415"/>
+      <c r="L9" s="403"/>
+      <c r="M9" s="405"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
@@ -20382,13 +20379,13 @@
       </c>
       <c r="B10" s="338"/>
       <c r="C10" s="339"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="409"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="248"/>
       <c r="G10" s="339"/>
       <c r="H10" s="339"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="409"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="385"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20413,13 +20410,13 @@
       </c>
       <c r="B11" s="336"/>
       <c r="C11" s="337"/>
-      <c r="D11" s="406"/>
-      <c r="E11" s="407"/>
+      <c r="D11" s="398"/>
+      <c r="E11" s="399"/>
       <c r="F11" s="304"/>
       <c r="G11" s="352"/>
       <c r="H11" s="352"/>
-      <c r="I11" s="426"/>
-      <c r="J11" s="427"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="387"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -20453,13 +20450,13 @@
       </c>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="383"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
       <c r="F12" s="332"/>
       <c r="G12" s="332"/>
       <c r="H12" s="332"/>
-      <c r="I12" s="382"/>
-      <c r="J12" s="383"/>
+      <c r="I12" s="417"/>
+      <c r="J12" s="418"/>
       <c r="K12" s="332"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -20490,11 +20487,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="367">
+      <c r="D13" s="420">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="368">
+      <c r="E13" s="421">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20510,11 +20507,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="367">
+      <c r="I13" s="420">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="368">
+      <c r="J13" s="421">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -20549,13 +20546,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="369"/>
-      <c r="E14" s="370"/>
+      <c r="D14" s="422"/>
+      <c r="E14" s="423"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -20586,11 +20583,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
+      <c r="D15" s="424">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="372"/>
+      <c r="E15" s="425"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -20603,11 +20600,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="371">
+      <c r="I15" s="424">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="372"/>
+      <c r="J15" s="425"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -20680,18 +20677,18 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="391">
+      <c r="C17" s="375">
         <v>40100</v>
       </c>
-      <c r="D17" s="421"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="391">
+      <c r="D17" s="376"/>
+      <c r="E17" s="377"/>
+      <c r="F17" s="375">
         <v>40200</v>
       </c>
-      <c r="G17" s="392"/>
+      <c r="G17" s="377"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="391"/>
-      <c r="J17" s="392"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="377"/>
       <c r="K17" s="5"/>
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
@@ -20779,23 +20776,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="377" t="s">
+      <c r="A20" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="378"/>
-      <c r="C20" s="379"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="368"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="377" t="s">
+      <c r="E20" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="378"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="J20" s="377" t="s">
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="368"/>
+      <c r="J20" s="366" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="378"/>
-      <c r="L20" s="379"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="368"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -20817,9 +20814,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="364"/>
-      <c r="F21" s="365"/>
-      <c r="G21" s="366"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="371"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -20852,9 +20849,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="366"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="371"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -20887,9 +20884,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="364"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="366"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="371"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -20930,9 +20927,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="390"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="374"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -20965,9 +20962,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="390"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="374"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21086,12 +21083,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="378"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="368"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -21128,9 +21125,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="390"/>
+      <c r="E29" s="372"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="374"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21155,9 +21152,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
+      <c r="E30" s="372"/>
+      <c r="F30" s="373"/>
+      <c r="G30" s="374"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21184,15 +21181,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="378" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="424"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="390"/>
+      <c r="E31" s="372"/>
+      <c r="F31" s="373"/>
+      <c r="G31" s="374"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21229,9 +21226,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
+      <c r="E32" s="372"/>
+      <c r="F32" s="373"/>
+      <c r="G32" s="374"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21256,9 +21253,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="388"/>
-      <c r="F33" s="389"/>
-      <c r="G33" s="390"/>
+      <c r="E33" s="372"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="374"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -21267,14 +21264,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="417" t="s">
+      <c r="N33" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="417"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="417"/>
-      <c r="R33" s="417"/>
-      <c r="S33" s="417"/>
+      <c r="O33" s="389"/>
+      <c r="P33" s="389"/>
+      <c r="Q33" s="389"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -21337,11 +21334,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="416"/>
-      <c r="O35" s="416"/>
-      <c r="P35" s="416"/>
-      <c r="Q35" s="416"/>
-      <c r="R35" s="416"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="388"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -21351,12 +21348,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="377" t="s">
+      <c r="E36" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="F36" s="367"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="368"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21370,11 +21367,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="416"/>
-      <c r="O36" s="416"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="416"/>
-      <c r="R36" s="416"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
+      <c r="P36" s="388"/>
+      <c r="Q36" s="388"/>
+      <c r="R36" s="388"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -21383,11 +21380,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="366"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="371"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21402,25 +21399,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="416"/>
-      <c r="O37" s="416"/>
-      <c r="P37" s="416"/>
-      <c r="Q37" s="416"/>
-      <c r="R37" s="416"/>
+      <c r="N37" s="388"/>
+      <c r="O37" s="388"/>
+      <c r="P37" s="388"/>
+      <c r="Q37" s="388"/>
+      <c r="R37" s="388"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="390" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="418"/>
+      <c r="B38" s="390"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="364"/>
-      <c r="F38" s="365"/>
-      <c r="G38" s="366"/>
+      <c r="E38" s="369"/>
+      <c r="F38" s="370"/>
+      <c r="G38" s="371"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21432,11 +21429,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="416"/>
-      <c r="O38" s="416"/>
-      <c r="P38" s="416"/>
-      <c r="Q38" s="416"/>
-      <c r="R38" s="416"/>
+      <c r="N38" s="388"/>
+      <c r="O38" s="388"/>
+      <c r="P38" s="388"/>
+      <c r="Q38" s="388"/>
+      <c r="R38" s="388"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -21451,9 +21448,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="364"/>
-      <c r="F39" s="365"/>
-      <c r="G39" s="366"/>
+      <c r="E39" s="369"/>
+      <c r="F39" s="370"/>
+      <c r="G39" s="371"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -21486,9 +21483,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="364"/>
-      <c r="F40" s="365"/>
-      <c r="G40" s="366"/>
+      <c r="E40" s="369"/>
+      <c r="F40" s="370"/>
+      <c r="G40" s="371"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -21519,9 +21516,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="364"/>
-      <c r="F41" s="365"/>
-      <c r="G41" s="366"/>
+      <c r="E41" s="369"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="371"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -21536,14 +21533,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="417" t="s">
+      <c r="N41" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="417"/>
-      <c r="P41" s="417"/>
-      <c r="Q41" s="417"/>
-      <c r="R41" s="417"/>
-      <c r="S41" s="417"/>
+      <c r="O41" s="389"/>
+      <c r="P41" s="389"/>
+      <c r="Q41" s="389"/>
+      <c r="R41" s="389"/>
+      <c r="S41" s="389"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -21569,11 +21566,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="416"/>
-      <c r="O42" s="416"/>
-      <c r="P42" s="416"/>
-      <c r="Q42" s="416"/>
-      <c r="R42" s="416"/>
+      <c r="N42" s="388"/>
+      <c r="O42" s="388"/>
+      <c r="P42" s="388"/>
+      <c r="Q42" s="388"/>
+      <c r="R42" s="388"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -21593,11 +21590,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="416"/>
-      <c r="O43" s="416"/>
-      <c r="P43" s="416"/>
-      <c r="Q43" s="416"/>
-      <c r="R43" s="416"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="388"/>
+      <c r="R43" s="388"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -21621,11 +21618,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="416"/>
-      <c r="O44" s="416"/>
-      <c r="P44" s="416"/>
-      <c r="Q44" s="416"/>
-      <c r="R44" s="416"/>
+      <c r="N44" s="388"/>
+      <c r="O44" s="388"/>
+      <c r="P44" s="388"/>
+      <c r="Q44" s="388"/>
+      <c r="R44" s="388"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -21652,11 +21649,11 @@
         <v>173.89</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="416"/>
-      <c r="O45" s="416"/>
-      <c r="P45" s="416"/>
-      <c r="Q45" s="416"/>
-      <c r="R45" s="416"/>
+      <c r="N45" s="388"/>
+      <c r="O45" s="388"/>
+      <c r="P45" s="388"/>
+      <c r="Q45" s="388"/>
+      <c r="R45" s="388"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -21676,11 +21673,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="416"/>
-      <c r="O46" s="416"/>
-      <c r="P46" s="416"/>
-      <c r="Q46" s="416"/>
-      <c r="R46" s="416"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -21797,21 +21794,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="384">
+      <c r="E51" s="419">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
+      <c r="F51" s="419"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="419"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="384">
+      <c r="J51" s="419">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
+      <c r="K51" s="419"/>
+      <c r="L51" s="419"/>
+      <c r="M51" s="419"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -22691,6 +22688,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -22707,58 +22756,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22778,8 +22775,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -22855,28 +22852,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="108">
-        <f>B4+1</f>
-        <v>1</v>
+        <f>TUE!J3</f>
+        <v>0</v>
       </c>
       <c r="D4" s="108">
-        <f t="shared" ref="D4:H4" si="0">C4+1</f>
-        <v>2</v>
+        <f>WED!J3</f>
+        <v>0</v>
       </c>
       <c r="E4" s="108">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>THU!J3</f>
+        <v>0</v>
       </c>
       <c r="F4" s="108">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>FRI!J3</f>
+        <v>0</v>
       </c>
       <c r="G4" s="108">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SAT!J3</f>
+        <v>0</v>
       </c>
       <c r="H4" s="108">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUN!J3</f>
+        <v>0</v>
       </c>
       <c r="I4" s="107" t="s">
         <v>72</v>
@@ -22895,23 +22892,23 @@
         <v>0</v>
       </c>
       <c r="D5" s="204">
-        <f t="shared" ref="D5:H5" si="1">SUM(D10:D12)+D7+D8+D9</f>
+        <f t="shared" ref="D5:H5" si="0">SUM(D10:D12)+D7+D8+D9</f>
         <v>0</v>
       </c>
       <c r="E5" s="204">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="204">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="204">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="204">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="205">
@@ -22928,27 +22925,27 @@
         <v>0</v>
       </c>
       <c r="C6" s="206">
-        <f t="shared" ref="C6:H6" si="2">SUM(C10:C12)</f>
+        <f t="shared" ref="C6:H6" si="1">SUM(C10:C12)</f>
         <v>0</v>
       </c>
       <c r="D6" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="205">
@@ -22982,7 +22979,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="235">
-        <f t="shared" ref="I7:I8" si="3">SUM(B7:H7)</f>
+        <f t="shared" ref="I7:I8" si="2">SUM(B7:H7)</f>
         <v>0</v>
       </c>
     </row>
@@ -23012,7 +23009,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23040,7 +23037,7 @@
       </c>
       <c r="H9" s="312"/>
       <c r="I9" s="313">
-        <f t="shared" ref="I9" si="4">SUM(B9:H9)</f>
+        <f t="shared" ref="I9" si="3">SUM(B9:H9)</f>
         <v>0</v>
       </c>
     </row>
@@ -23192,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="241">
-        <f t="shared" ref="I14:I19" si="5">SUM(B14:H14)</f>
+        <f t="shared" ref="I14:I19" si="4">SUM(B14:H14)</f>
         <v>0</v>
       </c>
     </row>
@@ -23208,7 +23205,7 @@
       <c r="G15" s="239"/>
       <c r="H15" s="240"/>
       <c r="I15" s="241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23245,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23282,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23319,7 +23316,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23336,27 +23333,27 @@
         <v>0</v>
       </c>
       <c r="D19" s="207">
-        <f t="shared" ref="D19:H19" si="6">SUM(D16:D18)</f>
+        <f t="shared" ref="D19:H19" si="5">SUM(D16:D18)</f>
         <v>0</v>
       </c>
       <c r="E19" s="207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F19" s="207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G19" s="207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H19" s="207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="208">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23441,7 +23438,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="122">
-        <f t="shared" ref="I22:I28" si="7">SUM(B22:H22)</f>
+        <f t="shared" ref="I22:I28" si="6">SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
@@ -23478,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23515,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L24" s="184"/>
@@ -23553,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23590,7 +23587,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23627,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23664,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -23681,23 +23678,23 @@
         <v>0</v>
       </c>
       <c r="D29" s="210">
-        <f t="shared" ref="D29:H29" si="8">SUM(D21:D28)</f>
+        <f t="shared" ref="D29:H29" si="7">SUM(D21:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" s="210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F29" s="210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G29" s="210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H29" s="211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="212">
@@ -23744,27 +23741,27 @@
         <v>0</v>
       </c>
       <c r="C31" s="244">
-        <f t="shared" ref="C31:H31" si="9">C29-C30</f>
+        <f t="shared" ref="C31:H31" si="8">C29-C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E31" s="244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F31" s="244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H31" s="245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I31" s="246">
@@ -23788,35 +23785,35 @@
         <v>86</v>
       </c>
       <c r="B33" s="141">
-        <f t="shared" ref="B33:I34" si="10">IF(B11=0,0,B17/B11)</f>
+        <f t="shared" ref="B33:I34" si="9">IF(B11=0,0,B17/B11)</f>
         <v>0</v>
       </c>
       <c r="C33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H33" s="141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I33" s="142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23825,35 +23822,35 @@
         <v>87</v>
       </c>
       <c r="B34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H34" s="144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I34" s="142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -23862,35 +23859,35 @@
         <v>88</v>
       </c>
       <c r="B35" s="144">
-        <f t="shared" ref="B35:I35" si="11">IF(B6=0,0,B29/B6)</f>
+        <f t="shared" ref="B35:I35" si="10">IF(B6=0,0,B29/B6)</f>
         <v>0</v>
       </c>
       <c r="C35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H35" s="144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I35" s="251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -23964,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="175">
-        <f t="shared" ref="D40:D50" si="12">+IF(C40=0,0,(B40-C40)/C40)</f>
+        <f t="shared" ref="D40:D50" si="11">+IF(C40=0,0,(B40-C40)/C40)</f>
         <v>0</v>
       </c>
       <c r="E40" s="148"/>
@@ -23985,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E41" s="148"/>
@@ -24006,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E42" s="148"/>
@@ -24027,7 +24024,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E43" s="148"/>
@@ -24048,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E44" s="148"/>
@@ -24069,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E45" s="151"/>
@@ -24089,7 +24086,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E46" s="148"/>
@@ -24126,7 +24123,7 @@
       <c r="B48" s="150"/>
       <c r="C48" s="150"/>
       <c r="D48" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -24153,7 +24150,7 @@
       <c r="B50" s="150"/>
       <c r="C50" s="150"/>
       <c r="D50" s="175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
+++ b/scripts/Report_Templates/Cafe_De_Paris_Sales_Report_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FC101-D269-498D-A57E-C0F4C754D136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537EA358-5184-436D-BDDE-D2C04170D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="708" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,12 +552,19 @@
     <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1773,261 +1780,261 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="8" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2038,60 +2045,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2100,488 +2107,571 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="9" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="9" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="33" fillId="9" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="34" fillId="9" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="33" fillId="9" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="34" fillId="9" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="33" fillId="9" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="34" fillId="9" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="12" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="12" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="10" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="13" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="15" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="15" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="16" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="16" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="16" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="16" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="16" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="16" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="16" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="15" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="15" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2590,204 +2680,124 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="12" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="36" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="12" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="12" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="12" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3737,56 +3747,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391"/>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
+      <c r="A1" s="404"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -3796,14 +3806,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -3833,12 +3843,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -3930,29 +3940,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -3974,10 +3984,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -3987,15 +3997,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -4020,27 +4030,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="373">
+      <c r="I9" s="379">
         <v>40900</v>
       </c>
-      <c r="J9" s="374"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -4062,13 +4072,13 @@
       </c>
       <c r="B10" s="336"/>
       <c r="C10" s="337"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -4093,13 +4103,13 @@
       </c>
       <c r="B11" s="334"/>
       <c r="C11" s="335"/>
-      <c r="D11" s="404"/>
-      <c r="E11" s="405"/>
+      <c r="D11" s="396"/>
+      <c r="E11" s="397"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -4133,13 +4143,13 @@
       </c>
       <c r="B12" s="329"/>
       <c r="C12" s="279"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="330"/>
       <c r="G12" s="330"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="379"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="414"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -4170,11 +4180,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4190,11 +4200,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -4229,13 +4239,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -4267,11 +4277,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -4284,11 +4294,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -4360,22 +4370,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40300</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="389">
+      <c r="I17" s="373">
         <v>40600</v>
       </c>
-      <c r="J17" s="390"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -4466,23 +4476,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -4504,9 +4514,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -4539,9 +4549,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -4574,9 +4584,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -4617,9 +4627,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -4652,9 +4662,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -4773,12 +4783,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -4813,9 +4823,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -4838,9 +4848,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -4867,15 +4877,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -4913,9 +4923,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -4940,9 +4950,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -4951,14 +4961,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -4988,11 +4998,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="414"/>
-      <c r="O34" s="414"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="414"/>
-      <c r="R34" s="414"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
+      <c r="Q34" s="386"/>
+      <c r="R34" s="386"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -5021,11 +5031,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -5035,12 +5045,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -5054,11 +5064,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -5067,11 +5077,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -5086,25 +5096,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="383"/>
-      <c r="F38" s="384"/>
-      <c r="G38" s="385"/>
+      <c r="E38" s="389"/>
+      <c r="F38" s="390"/>
+      <c r="G38" s="391"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -5116,11 +5126,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -5135,9 +5145,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="384"/>
-      <c r="G39" s="385"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="390"/>
+      <c r="G39" s="391"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -5170,9 +5180,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="385"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="391"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -5203,9 +5213,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="384"/>
-      <c r="G41" s="385"/>
+      <c r="E41" s="389"/>
+      <c r="F41" s="390"/>
+      <c r="G41" s="391"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -5220,14 +5230,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -5253,11 +5263,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -5278,11 +5288,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -5306,11 +5316,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -5337,11 +5347,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -5361,11 +5371,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -5484,20 +5494,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="J51" s="382">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -6321,6 +6331,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E21:G21"/>
@@ -6337,58 +6399,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToWidth="2" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -6458,33 +6468,33 @@
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -6494,14 +6504,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -6531,12 +6541,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -6628,29 +6638,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -6672,10 +6682,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -6685,15 +6695,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -6718,27 +6728,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="373">
+      <c r="I9" s="379">
         <v>40900</v>
       </c>
-      <c r="J9" s="374"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -6760,13 +6770,13 @@
       </c>
       <c r="B10" s="336"/>
       <c r="C10" s="337"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -6791,13 +6801,13 @@
       </c>
       <c r="B11" s="334"/>
       <c r="C11" s="335"/>
-      <c r="D11" s="404"/>
-      <c r="E11" s="405"/>
+      <c r="D11" s="396"/>
+      <c r="E11" s="397"/>
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -6831,13 +6841,13 @@
       </c>
       <c r="B12" s="329"/>
       <c r="C12" s="330"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="379"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="414"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -6868,11 +6878,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f>SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" ref="E13" si="0">SUM(E10:E12)</f>
         <v>0</v>
       </c>
@@ -6888,11 +6898,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -6927,13 +6937,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -6965,11 +6975,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -6982,11 +6992,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -7058,22 +7068,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40300</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="389">
+      <c r="I17" s="373">
         <v>40600</v>
       </c>
-      <c r="J17" s="390"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -7164,23 +7174,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -7202,9 +7212,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -7237,9 +7247,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -7272,9 +7282,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -7315,9 +7325,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -7350,9 +7360,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -7471,12 +7481,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -7511,9 +7521,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -7536,9 +7546,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -7565,15 +7575,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -7610,9 +7620,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -7637,9 +7647,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -7648,14 +7658,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -7685,11 +7695,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="414"/>
-      <c r="O34" s="414"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="414"/>
-      <c r="R34" s="414"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
+      <c r="Q34" s="386"/>
+      <c r="R34" s="386"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -7718,11 +7728,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -7732,12 +7742,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -7751,11 +7761,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -7764,11 +7774,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -7783,25 +7793,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="383"/>
-      <c r="F38" s="384"/>
-      <c r="G38" s="385"/>
+      <c r="E38" s="389"/>
+      <c r="F38" s="390"/>
+      <c r="G38" s="391"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -7813,11 +7823,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -7832,9 +7842,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="384"/>
-      <c r="G39" s="385"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="390"/>
+      <c r="G39" s="391"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -7867,9 +7877,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="385"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="391"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -7900,9 +7910,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="384"/>
-      <c r="G41" s="385"/>
+      <c r="E41" s="389"/>
+      <c r="F41" s="390"/>
+      <c r="G41" s="391"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -7917,14 +7927,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -7950,11 +7960,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -7975,11 +7985,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -8003,11 +8013,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -8034,11 +8044,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -8058,11 +8068,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -8181,20 +8191,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="J51" s="382">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -9039,15 +9049,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="C7:E7"/>
@@ -9064,48 +9107,15 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -9155,56 +9165,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391"/>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
+      <c r="A1" s="404"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -9214,14 +9224,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -9251,12 +9261,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -9348,29 +9358,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -9392,10 +9402,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -9405,15 +9415,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -9438,27 +9448,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="373">
+      <c r="I9" s="379">
         <v>40900</v>
       </c>
-      <c r="J9" s="374"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -9480,13 +9490,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -9516,8 +9526,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -9551,13 +9561,13 @@
       </c>
       <c r="B12" s="329"/>
       <c r="C12" s="330"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="279"/>
       <c r="G12" s="279"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="379"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="414"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -9588,11 +9598,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9608,11 +9618,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -9647,13 +9657,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -9685,11 +9695,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -9702,11 +9712,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -9778,22 +9788,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40300</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="389">
+      <c r="I17" s="373">
         <v>40600</v>
       </c>
-      <c r="J17" s="390"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -9884,23 +9894,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -9922,9 +9932,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -9957,9 +9967,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -9992,9 +10002,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -10035,9 +10045,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -10072,9 +10082,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -10193,12 +10203,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -10233,9 +10243,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -10260,9 +10270,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -10289,15 +10299,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -10334,9 +10344,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -10361,9 +10371,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -10372,14 +10382,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -10409,11 +10419,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="414"/>
-      <c r="O34" s="414"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="414"/>
-      <c r="R34" s="414"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
+      <c r="Q34" s="386"/>
+      <c r="R34" s="386"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -10442,11 +10452,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -10456,12 +10466,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -10475,11 +10485,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -10488,11 +10498,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -10507,25 +10517,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="383"/>
-      <c r="F38" s="384"/>
-      <c r="G38" s="385"/>
+      <c r="E38" s="389"/>
+      <c r="F38" s="390"/>
+      <c r="G38" s="391"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -10537,11 +10547,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -10556,9 +10566,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="384"/>
-      <c r="G39" s="385"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="390"/>
+      <c r="G39" s="391"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -10591,9 +10601,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="385"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="391"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -10624,9 +10634,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="384"/>
-      <c r="G41" s="385"/>
+      <c r="E41" s="389"/>
+      <c r="F41" s="390"/>
+      <c r="G41" s="391"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -10641,14 +10651,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -10674,11 +10684,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -10699,11 +10709,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -10727,11 +10737,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -10758,11 +10768,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -10782,11 +10792,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -10905,20 +10915,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="J51" s="382">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -11759,61 +11769,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N37:R37"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="A38:B38"/>
@@ -11827,6 +11782,61 @@
     <mergeCell ref="N42:R42"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -11875,56 +11885,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391"/>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
+      <c r="A1" s="404"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11934,14 +11944,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -11971,12 +11981,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -12068,29 +12078,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -12112,10 +12122,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -12125,15 +12135,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -12158,27 +12168,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="373">
+      <c r="I9" s="379">
         <v>40900</v>
       </c>
-      <c r="J9" s="374"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -12200,13 +12210,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -12236,8 +12246,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -12271,13 +12281,13 @@
       </c>
       <c r="B12" s="329"/>
       <c r="C12" s="330"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="330"/>
       <c r="G12" s="330"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="379"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="414"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -12308,11 +12318,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12328,11 +12338,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -12367,13 +12377,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -12405,11 +12415,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -12422,11 +12432,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -12498,22 +12508,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40300</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="389">
+      <c r="I17" s="373">
         <v>40600</v>
       </c>
-      <c r="J17" s="390"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -12604,23 +12614,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -12642,9 +12652,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -12677,9 +12687,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -12712,9 +12722,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -12755,9 +12765,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -12790,9 +12800,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -12912,12 +12922,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -12952,9 +12962,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -12979,9 +12989,9 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -13008,15 +13018,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -13053,9 +13063,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -13080,9 +13090,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -13091,14 +13101,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -13128,11 +13138,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="414"/>
-      <c r="O34" s="414"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="414"/>
-      <c r="R34" s="414"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
+      <c r="Q34" s="386"/>
+      <c r="R34" s="386"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -13161,11 +13171,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -13175,12 +13185,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -13194,11 +13204,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -13207,11 +13217,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -13226,25 +13236,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="383"/>
-      <c r="F38" s="384"/>
-      <c r="G38" s="385"/>
+      <c r="E38" s="389"/>
+      <c r="F38" s="390"/>
+      <c r="G38" s="391"/>
       <c r="H38" s="74"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -13256,11 +13266,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -13275,9 +13285,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="384"/>
-      <c r="G39" s="385"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="390"/>
+      <c r="G39" s="391"/>
       <c r="H39" s="74"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -13310,9 +13320,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="385"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="391"/>
       <c r="H40" s="74"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -13343,9 +13353,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="384"/>
-      <c r="G41" s="385"/>
+      <c r="E41" s="389"/>
+      <c r="F41" s="390"/>
+      <c r="G41" s="391"/>
       <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -13360,14 +13370,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -13393,11 +13403,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -13418,11 +13428,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -13446,11 +13456,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -13477,11 +13487,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -13501,11 +13511,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -13624,20 +13634,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="J51" s="382">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -14452,6 +14462,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -14468,58 +14530,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -14568,56 +14578,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391"/>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
+      <c r="A1" s="404"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -14627,14 +14637,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -14664,12 +14674,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -14761,29 +14771,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -14805,10 +14815,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -14818,15 +14828,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -14851,27 +14861,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="373">
+      <c r="I9" s="379">
         <v>40900</v>
       </c>
-      <c r="J9" s="374"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -14893,13 +14903,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -14929,8 +14939,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -14964,13 +14974,13 @@
       </c>
       <c r="B12" s="329"/>
       <c r="C12" s="330"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="330"/>
       <c r="G12" s="330"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="379"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="414"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -15001,11 +15011,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15021,11 +15031,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -15060,13 +15070,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -15098,11 +15108,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -15115,11 +15125,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -15191,22 +15201,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40300</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="389">
+      <c r="I17" s="373">
         <v>40600</v>
       </c>
-      <c r="J17" s="390"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -15297,23 +15307,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -15335,9 +15345,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -15370,9 +15380,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -15405,9 +15415,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -15448,9 +15458,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -15483,9 +15493,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -15604,12 +15614,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -15646,9 +15656,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -15673,9 +15683,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -15702,15 +15712,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -15747,9 +15757,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -15774,9 +15784,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -15785,14 +15795,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -15822,11 +15832,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="414"/>
-      <c r="O34" s="414"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="414"/>
-      <c r="R34" s="414"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
+      <c r="Q34" s="386"/>
+      <c r="R34" s="386"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -15855,11 +15865,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -15869,12 +15879,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -15888,11 +15898,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -15901,11 +15911,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -15920,25 +15930,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="362"/>
-      <c r="F38" s="363"/>
-      <c r="G38" s="364"/>
+      <c r="E38" s="367"/>
+      <c r="F38" s="368"/>
+      <c r="G38" s="369"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -15950,11 +15960,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -15969,9 +15979,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="362"/>
-      <c r="F39" s="363"/>
-      <c r="G39" s="364"/>
+      <c r="E39" s="367"/>
+      <c r="F39" s="368"/>
+      <c r="G39" s="369"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -16004,9 +16014,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="362"/>
-      <c r="F40" s="363"/>
-      <c r="G40" s="364"/>
+      <c r="E40" s="367"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="369"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -16037,9 +16047,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="362"/>
-      <c r="F41" s="363"/>
-      <c r="G41" s="364"/>
+      <c r="E41" s="367"/>
+      <c r="F41" s="368"/>
+      <c r="G41" s="369"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -16054,14 +16064,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -16087,11 +16097,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -16112,11 +16122,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -16140,11 +16150,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -16172,11 +16182,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -16196,11 +16206,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -16319,20 +16329,20 @@
         <v>16</v>
       </c>
       <c r="B51" s="68"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="J51" s="382">
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="S51" s="69"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
@@ -17196,6 +17206,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -17212,58 +17274,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -17315,56 +17325,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391"/>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
+      <c r="A1" s="404"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -17374,14 +17384,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -17411,12 +17421,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -17508,29 +17518,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5">
@@ -17552,10 +17562,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -17565,15 +17575,15 @@
       <c r="H8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -17598,27 +17608,27 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104">
         <v>40300</v>
       </c>
-      <c r="I9" s="373">
+      <c r="I9" s="379">
         <v>40900</v>
       </c>
-      <c r="J9" s="374"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10">
         <v>41000</v>
       </c>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
@@ -17640,13 +17650,13 @@
       </c>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="248"/>
       <c r="H10" s="248"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -17676,8 +17686,8 @@
       <c r="F11" s="189"/>
       <c r="G11" s="189"/>
       <c r="H11" s="75"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -17716,8 +17726,8 @@
       <c r="F12" s="189"/>
       <c r="G12" s="189"/>
       <c r="H12" s="279"/>
-      <c r="I12" s="378"/>
-      <c r="J12" s="379"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="414"/>
       <c r="K12" s="278"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -17748,11 +17758,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17768,11 +17778,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -17807,13 +17817,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -17845,11 +17855,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -17862,11 +17872,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -17938,22 +17948,22 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40200</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40300</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22">
         <v>40500</v>
       </c>
-      <c r="I17" s="389">
+      <c r="I17" s="373">
         <v>40600</v>
       </c>
-      <c r="J17" s="390"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5">
         <f>K9</f>
         <v>41000</v>
@@ -18044,23 +18054,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -18082,9 +18092,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -18117,9 +18127,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -18152,9 +18162,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -18195,9 +18205,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -18232,9 +18242,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -18353,12 +18363,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -18393,9 +18403,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -18420,9 +18430,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -18449,15 +18459,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -18494,9 +18504,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -18521,9 +18531,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -18532,14 +18542,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -18569,11 +18579,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="414"/>
-      <c r="O34" s="414"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="414"/>
-      <c r="R34" s="414"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
+      <c r="Q34" s="386"/>
+      <c r="R34" s="386"/>
       <c r="S34" s="76"/>
       <c r="T34" s="58"/>
       <c r="U34" s="58"/>
@@ -18602,11 +18612,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -18617,12 +18627,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -18636,11 +18646,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -18649,11 +18659,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -18668,25 +18678,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="362"/>
-      <c r="F38" s="363"/>
-      <c r="G38" s="364"/>
+      <c r="E38" s="367"/>
+      <c r="F38" s="368"/>
+      <c r="G38" s="369"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -18698,11 +18708,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -18717,9 +18727,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="362"/>
-      <c r="F39" s="363"/>
-      <c r="G39" s="364"/>
+      <c r="E39" s="367"/>
+      <c r="F39" s="368"/>
+      <c r="G39" s="369"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -18752,9 +18762,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="362"/>
-      <c r="F40" s="363"/>
-      <c r="G40" s="364"/>
+      <c r="E40" s="367"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="369"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -18785,9 +18795,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="362"/>
-      <c r="F41" s="363"/>
-      <c r="G41" s="364"/>
+      <c r="E41" s="367"/>
+      <c r="F41" s="368"/>
+      <c r="G41" s="369"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -18802,14 +18812,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -18835,11 +18845,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -18859,11 +18869,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -18887,11 +18897,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -18918,11 +18928,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -18942,11 +18952,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -19065,21 +19075,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="382">
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -19951,6 +19961,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -19967,58 +20029,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -20067,56 +20077,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391"/>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
+      <c r="A1" s="404"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="J1" s="404"/>
+      <c r="K1" s="404"/>
+      <c r="L1" s="404"/>
+      <c r="M1" s="404"/>
+      <c r="N1" s="404"/>
+      <c r="O1" s="404"/>
+      <c r="P1" s="404"/>
+      <c r="Q1" s="404"/>
+      <c r="R1" s="404"/>
+      <c r="S1" s="404"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="392" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="394" t="s">
+      <c r="A2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="406"/>
+      <c r="P2" s="407" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="395"/>
-      <c r="R2" s="396"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="409"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="417" t="s">
+      <c r="T2" s="362" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="418"/>
+      <c r="U2" s="363"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -20126,14 +20136,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="397" t="s">
+      <c r="H3" s="410" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="103"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
       <c r="N3" s="4"/>
       <c r="O3" s="2"/>
       <c r="P3" s="201" t="s">
@@ -20163,12 +20173,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="397"/>
+      <c r="H4" s="410"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
-      <c r="L4" s="399"/>
-      <c r="M4" s="399"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5">
@@ -20260,29 +20270,29 @@
       <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="400" t="s">
+      <c r="C7" s="392" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="403"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="400" t="s">
+      <c r="D7" s="395"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="401"/>
+      <c r="G7" s="393"/>
       <c r="H7" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="401"/>
+      <c r="J7" s="393"/>
       <c r="K7" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="402"/>
+      <c r="M7" s="394"/>
       <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
@@ -20301,10 +20311,10 @@
       <c r="C8" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="409"/>
+      <c r="E8" s="399"/>
       <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
@@ -20312,13 +20322,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="157"/>
-      <c r="I8" s="371"/>
-      <c r="J8" s="372"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="425"/>
       <c r="K8" s="158"/>
-      <c r="L8" s="410" t="s">
+      <c r="L8" s="400" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="412" t="s">
+      <c r="M8" s="402" t="s">
         <v>97</v>
       </c>
       <c r="N8" s="4"/>
@@ -20340,21 +20350,21 @@
       <c r="B9" s="9">
         <v>40000</v>
       </c>
-      <c r="C9" s="373">
+      <c r="C9" s="379">
         <v>40100</v>
       </c>
-      <c r="D9" s="423"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="373">
+      <c r="D9" s="381"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="379">
         <v>40200</v>
       </c>
-      <c r="G9" s="374"/>
+      <c r="G9" s="380"/>
       <c r="H9" s="104"/>
-      <c r="I9" s="373"/>
-      <c r="J9" s="374"/>
+      <c r="I9" s="379"/>
+      <c r="J9" s="380"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="411"/>
-      <c r="M9" s="413"/>
+      <c r="L9" s="401"/>
+      <c r="M9" s="403"/>
       <c r="N9" s="4"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
@@ -20373,13 +20383,13 @@
       </c>
       <c r="B10" s="336"/>
       <c r="C10" s="337"/>
-      <c r="D10" s="406"/>
-      <c r="E10" s="407"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="248"/>
       <c r="G10" s="337"/>
       <c r="H10" s="337"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="407"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="383"/>
       <c r="K10" s="249"/>
       <c r="L10" s="12">
         <f>SUM(B10:K10)</f>
@@ -20404,13 +20414,13 @@
       </c>
       <c r="B11" s="334"/>
       <c r="C11" s="335"/>
-      <c r="D11" s="404"/>
-      <c r="E11" s="405"/>
+      <c r="D11" s="396"/>
+      <c r="E11" s="397"/>
       <c r="F11" s="304"/>
       <c r="G11" s="350"/>
       <c r="H11" s="350"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="425"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="75"/>
       <c r="L11" s="12">
         <f>SUM(B11:K11)</f>
@@ -20444,13 +20454,13 @@
       </c>
       <c r="B12" s="329"/>
       <c r="C12" s="330"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="381"/>
+      <c r="D12" s="415"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="330"/>
       <c r="G12" s="330"/>
       <c r="H12" s="330"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="381"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="416"/>
       <c r="K12" s="330"/>
       <c r="L12" s="12">
         <f>SUM(B12:K12)</f>
@@ -20481,11 +20491,11 @@
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="365">
+      <c r="D13" s="418">
         <f t="shared" ref="D13:E13" si="0">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="366">
+      <c r="E13" s="419">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20501,11 +20511,11 @@
         <f>SUM(H10:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="365">
+      <c r="I13" s="418">
         <f t="shared" ref="I13" si="1">SUM(I10:I12)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="366">
+      <c r="J13" s="419">
         <f>SUM(J10:J12)</f>
         <v>0</v>
       </c>
@@ -20540,13 +20550,13 @@
       <c r="A14" s="73"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="367"/>
-      <c r="E14" s="368"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="421"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="421"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
@@ -20577,11 +20587,11 @@
         <f>C13*0.1</f>
         <v>0</v>
       </c>
-      <c r="D15" s="369">
+      <c r="D15" s="422">
         <f>D13*0.1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="370"/>
+      <c r="E15" s="423"/>
       <c r="F15" s="18">
         <f>F13*0.1</f>
         <v>0</v>
@@ -20594,11 +20604,11 @@
         <f>H13*0.1</f>
         <v>0</v>
       </c>
-      <c r="I15" s="369">
+      <c r="I15" s="422">
         <f>I13*0.1</f>
         <v>0</v>
       </c>
-      <c r="J15" s="370"/>
+      <c r="J15" s="423"/>
       <c r="K15" s="18">
         <f>K13*0</f>
         <v>0</v>
@@ -20671,18 +20681,18 @@
       <c r="B17" s="22">
         <v>40000</v>
       </c>
-      <c r="C17" s="389">
+      <c r="C17" s="373">
         <v>40100</v>
       </c>
-      <c r="D17" s="419"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389">
+      <c r="D17" s="374"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="373">
         <v>40200</v>
       </c>
-      <c r="G17" s="390"/>
+      <c r="G17" s="375"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="389"/>
-      <c r="J17" s="390"/>
+      <c r="I17" s="373"/>
+      <c r="J17" s="375"/>
       <c r="K17" s="5"/>
       <c r="L17" s="23"/>
       <c r="M17" s="24"/>
@@ -20770,23 +20780,23 @@
       <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="364" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="376"/>
-      <c r="C20" s="377"/>
+      <c r="B20" s="365"/>
+      <c r="C20" s="366"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="375" t="s">
+      <c r="E20" s="364" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="J20" s="375" t="s">
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="J20" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="376"/>
-      <c r="L20" s="377"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4"/>
       <c r="O20" s="2"/>
@@ -20808,9 +20818,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="362"/>
-      <c r="F21" s="363"/>
-      <c r="G21" s="364"/>
+      <c r="E21" s="367"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="369"/>
       <c r="H21" s="55"/>
       <c r="I21" s="26"/>
       <c r="J21" s="29" t="s">
@@ -20843,9 +20853,9 @@
         <v>0</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="363"/>
-      <c r="G22" s="364"/>
+      <c r="E22" s="367"/>
+      <c r="F22" s="368"/>
+      <c r="G22" s="369"/>
       <c r="H22" s="55"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
@@ -20878,9 +20888,9 @@
         <v>0</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="362"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="364"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="368"/>
+      <c r="G23" s="369"/>
       <c r="H23" s="55"/>
       <c r="I23" s="30"/>
       <c r="J23" s="32" t="s">
@@ -20921,9 +20931,9 @@
         <v>0</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="387"/>
-      <c r="G24" s="388"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="372"/>
       <c r="H24" s="76"/>
       <c r="I24" s="30"/>
       <c r="J24" s="43" t="s">
@@ -20956,9 +20966,9 @@
         <v>0</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="388"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="372"/>
       <c r="H25" s="76"/>
       <c r="I25" s="30"/>
       <c r="J25" s="43" t="s">
@@ -21077,12 +21087,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="375" t="s">
+      <c r="E28" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="376"/>
-      <c r="H28" s="377"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="366"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32" t="s">
         <v>98</v>
@@ -21119,9 +21129,9 @@
         <v>0</v>
       </c>
       <c r="D29" s="41"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
+      <c r="E29" s="370"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
       <c r="H29" s="76"/>
       <c r="I29" s="26"/>
       <c r="J29" s="40" t="s">
@@ -21146,9 +21156,9 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="387"/>
-      <c r="G30" s="388"/>
+      <c r="E30" s="370"/>
+      <c r="F30" s="371"/>
+      <c r="G30" s="372"/>
       <c r="H30" s="76"/>
       <c r="I30" s="30"/>
       <c r="J30" s="43" t="s">
@@ -21175,15 +21185,15 @@
       <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="421"/>
-      <c r="C31" s="422"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="378"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="386"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="388"/>
+      <c r="E31" s="370"/>
+      <c r="F31" s="371"/>
+      <c r="G31" s="372"/>
       <c r="H31" s="76"/>
       <c r="I31" s="30"/>
       <c r="J31" s="43" t="s">
@@ -21220,9 +21230,9 @@
         <v>27</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="386"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
+      <c r="E32" s="370"/>
+      <c r="F32" s="371"/>
+      <c r="G32" s="372"/>
       <c r="H32" s="76"/>
       <c r="I32" s="30"/>
       <c r="M32" s="25"/>
@@ -21247,9 +21257,9 @@
         <v>0</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
+      <c r="E33" s="370"/>
+      <c r="F33" s="371"/>
+      <c r="G33" s="372"/>
       <c r="H33" s="76"/>
       <c r="I33" s="30"/>
       <c r="J33" s="167" t="s">
@@ -21258,14 +21268,14 @@
       <c r="K33" s="168"/>
       <c r="L33" s="169"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="415" t="s">
+      <c r="N33" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="415"/>
-      <c r="P33" s="415"/>
-      <c r="Q33" s="415"/>
-      <c r="R33" s="415"/>
-      <c r="S33" s="415"/>
+      <c r="O33" s="387"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="387"/>
+      <c r="R33" s="387"/>
+      <c r="S33" s="387"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
     </row>
@@ -21328,11 +21338,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="414"/>
-      <c r="O35" s="414"/>
-      <c r="P35" s="414"/>
-      <c r="Q35" s="414"/>
-      <c r="R35" s="414"/>
+      <c r="N35" s="386"/>
+      <c r="O35" s="386"/>
+      <c r="P35" s="386"/>
+      <c r="Q35" s="386"/>
+      <c r="R35" s="386"/>
       <c r="S35" s="76"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
@@ -21342,12 +21352,12 @@
       <c r="B36" s="55"/>
       <c r="C36" s="97"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="375" t="s">
+      <c r="E36" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="366"/>
       <c r="I36" s="54"/>
       <c r="J36" s="43" t="s">
         <v>42</v>
@@ -21361,11 +21371,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="414"/>
-      <c r="O36" s="414"/>
-      <c r="P36" s="414"/>
-      <c r="Q36" s="414"/>
-      <c r="R36" s="414"/>
+      <c r="N36" s="386"/>
+      <c r="O36" s="386"/>
+      <c r="P36" s="386"/>
+      <c r="Q36" s="386"/>
+      <c r="R36" s="386"/>
       <c r="S36" s="76"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
@@ -21374,11 +21384,11 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="E37" s="362" t="s">
+      <c r="E37" s="367" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="363"/>
-      <c r="G37" s="364"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="369"/>
       <c r="H37" s="55"/>
       <c r="I37" s="26"/>
       <c r="J37" s="43" t="s">
@@ -21393,25 +21403,25 @@
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="414"/>
-      <c r="O37" s="414"/>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="414"/>
-      <c r="R37" s="414"/>
+      <c r="N37" s="386"/>
+      <c r="O37" s="386"/>
+      <c r="P37" s="386"/>
+      <c r="Q37" s="386"/>
+      <c r="R37" s="386"/>
       <c r="S37" s="76"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="416" t="s">
+      <c r="A38" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="416"/>
+      <c r="B38" s="388"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="362"/>
-      <c r="F38" s="363"/>
-      <c r="G38" s="364"/>
+      <c r="E38" s="367"/>
+      <c r="F38" s="368"/>
+      <c r="G38" s="369"/>
       <c r="H38" s="55"/>
       <c r="I38" s="30"/>
       <c r="J38" s="43" t="s">
@@ -21423,11 +21433,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="56"/>
-      <c r="N38" s="414"/>
-      <c r="O38" s="414"/>
-      <c r="P38" s="414"/>
-      <c r="Q38" s="414"/>
-      <c r="R38" s="414"/>
+      <c r="N38" s="386"/>
+      <c r="O38" s="386"/>
+      <c r="P38" s="386"/>
+      <c r="Q38" s="386"/>
+      <c r="R38" s="386"/>
       <c r="S38" s="76"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
@@ -21442,9 +21452,9 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="362"/>
-      <c r="F39" s="363"/>
-      <c r="G39" s="364"/>
+      <c r="E39" s="367"/>
+      <c r="F39" s="368"/>
+      <c r="G39" s="369"/>
       <c r="H39" s="55"/>
       <c r="I39" s="30"/>
       <c r="J39" s="43" t="s">
@@ -21477,9 +21487,9 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="362"/>
-      <c r="F40" s="363"/>
-      <c r="G40" s="364"/>
+      <c r="E40" s="367"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="369"/>
       <c r="H40" s="55"/>
       <c r="I40" s="30"/>
       <c r="J40" s="43" t="s">
@@ -21510,9 +21520,9 @@
       <c r="B41" s="61"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="362"/>
-      <c r="F41" s="363"/>
-      <c r="G41" s="364"/>
+      <c r="E41" s="367"/>
+      <c r="F41" s="368"/>
+      <c r="G41" s="369"/>
       <c r="H41" s="55"/>
       <c r="I41" s="30"/>
       <c r="J41" s="43" t="s">
@@ -21527,14 +21537,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="415" t="s">
+      <c r="N41" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="415"/>
-      <c r="P41" s="415"/>
-      <c r="Q41" s="415"/>
-      <c r="R41" s="415"/>
-      <c r="S41" s="415"/>
+      <c r="O41" s="387"/>
+      <c r="P41" s="387"/>
+      <c r="Q41" s="387"/>
+      <c r="R41" s="387"/>
+      <c r="S41" s="387"/>
       <c r="T41" s="58"/>
       <c r="U41" s="58"/>
     </row>
@@ -21560,11 +21570,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="414"/>
-      <c r="O42" s="414"/>
-      <c r="P42" s="414"/>
-      <c r="Q42" s="414"/>
-      <c r="R42" s="414"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
+      <c r="P42" s="386"/>
+      <c r="Q42" s="386"/>
+      <c r="R42" s="386"/>
       <c r="S42" s="76"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
@@ -21584,11 +21594,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="25"/>
-      <c r="N43" s="414"/>
-      <c r="O43" s="414"/>
-      <c r="P43" s="414"/>
-      <c r="Q43" s="414"/>
-      <c r="R43" s="414"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
+      <c r="P43" s="386"/>
+      <c r="Q43" s="386"/>
+      <c r="R43" s="386"/>
       <c r="S43" s="76"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
@@ -21612,11 +21622,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="414"/>
-      <c r="O44" s="414"/>
-      <c r="P44" s="414"/>
-      <c r="Q44" s="414"/>
-      <c r="R44" s="414"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
+      <c r="P44" s="386"/>
+      <c r="Q44" s="386"/>
+      <c r="R44" s="386"/>
       <c r="S44" s="76"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
@@ -21643,11 +21653,11 @@
         <v>173.89</v>
       </c>
       <c r="M45" s="25"/>
-      <c r="N45" s="414"/>
-      <c r="O45" s="414"/>
-      <c r="P45" s="414"/>
-      <c r="Q45" s="414"/>
-      <c r="R45" s="414"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
+      <c r="P45" s="386"/>
+      <c r="Q45" s="386"/>
+      <c r="R45" s="386"/>
       <c r="S45" s="76"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
@@ -21667,11 +21677,11 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="414"/>
-      <c r="O46" s="414"/>
-      <c r="P46" s="414"/>
-      <c r="Q46" s="414"/>
-      <c r="R46" s="414"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
       <c r="S46" s="76"/>
       <c r="T46" s="58"/>
       <c r="U46" s="58"/>
@@ -21788,21 +21798,21 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="382">
+      <c r="E51" s="417">
         <f>+J51</f>
         <v>0</v>
       </c>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
+      <c r="F51" s="417"/>
+      <c r="G51" s="417"/>
+      <c r="H51" s="417"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="382">
+      <c r="J51" s="417">
         <f>+J3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="382"/>
-      <c r="L51" s="382"/>
-      <c r="M51" s="382"/>
+      <c r="K51" s="417"/>
+      <c r="L51" s="417"/>
+      <c r="M51" s="417"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="4"/>
@@ -22682,6 +22692,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="J51:M51"/>
@@ -22698,60 +22760,8 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="E41:G41"/>
   </mergeCells>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="598" r:id="rId1"/>
   <headerFooter>
@@ -22770,7 +22780,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -22952,24 +22962,31 @@
         <v>124</v>
       </c>
       <c r="B7" s="270">
+        <f>MON!$B$49</f>
         <v>0</v>
       </c>
       <c r="C7" s="271">
+        <f>TUE!$B$49</f>
         <v>0</v>
       </c>
       <c r="D7" s="271">
+        <f>WED!$B$49</f>
         <v>0</v>
       </c>
       <c r="E7" s="271">
+        <f>THU!$B$49</f>
         <v>0</v>
       </c>
       <c r="F7" s="271">
+        <f>FRI!$B$49</f>
         <v>0</v>
       </c>
       <c r="G7" s="271">
+        <f>SAT!$B$49</f>
         <v>0</v>
       </c>
       <c r="H7" s="272">
+        <f>SUN!$B$49</f>
         <v>0</v>
       </c>
       <c r="I7" s="235">
@@ -22982,24 +22999,31 @@
         <v>125</v>
       </c>
       <c r="B8" s="270">
+        <f>MON!$B$50</f>
         <v>0</v>
       </c>
       <c r="C8" s="271">
+        <f>TUE!$B$50</f>
         <v>0</v>
       </c>
       <c r="D8" s="271">
+        <f>WED!$B$50</f>
         <v>0</v>
       </c>
       <c r="E8" s="271">
+        <f>THU!$B$50</f>
         <v>0</v>
       </c>
       <c r="F8" s="271">
+        <f>FRI!$B$50</f>
         <v>0</v>
       </c>
       <c r="G8" s="271">
+        <f>SAT!$B$50</f>
         <v>0</v>
       </c>
       <c r="H8" s="272">
+        <f>SUN!$B$50</f>
         <v>0</v>
       </c>
       <c r="I8" s="235">
@@ -23170,25 +23194,32 @@
       <c r="A14" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="237">
+      <c r="B14" s="437">
+        <f>MON!$C$49</f>
         <v>0</v>
       </c>
       <c r="C14" s="238">
+        <f>TUE!$C$49</f>
         <v>0</v>
       </c>
       <c r="D14" s="239">
+        <f>WED!$C$49</f>
         <v>0</v>
       </c>
       <c r="E14" s="239">
+        <f>THU!$C$49</f>
         <v>0</v>
       </c>
       <c r="F14" s="239">
+        <f>FRI!$C$49</f>
         <v>0</v>
       </c>
       <c r="G14" s="239">
+        <f>SAT!$C$49</f>
         <v>0</v>
       </c>
       <c r="H14" s="240">
+        <f>SUN!$C$49</f>
         <v>0</v>
       </c>
       <c r="I14" s="241">
@@ -23200,13 +23231,34 @@
       <c r="A15" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="240"/>
+      <c r="B15" s="437">
+        <f>MON!$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="238">
+        <f>TUE!$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="239">
+        <f>WED!$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="239">
+        <f>THU!$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="239">
+        <f>FRI!$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="239">
+        <f>SAT!$C$50</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="240">
+        <f>SUN!$C$50</f>
+        <v>0</v>
+      </c>
       <c r="I15" s="241">
         <f t="shared" si="4"/>
         <v>0</v>
